--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{10D5EE35-54BB-4542-BD99-B88C1035F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78A6A069-9FC1-4912-B11D-598E787244A3}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{10D5EE35-54BB-4542-BD99-B88C1035F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7986D10D-DF25-4645-93C9-59388EA3F1E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="54" activeTab="60" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="27" activeTab="29" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -7377,8 +7377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15392,7 +15392,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -24984,7 +24984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54325818ffabb65a/Documents/KeyLogic/PARETO/project-pareto/pareto/case_studies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{10D5EE35-54BB-4542-BD99-B88C1035F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7986D10D-DF25-4645-93C9-59388EA3F1E2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA1116-7D67-4951-AAC0-08F92A26DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="27" activeTab="29" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="53" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -74,6 +74,7 @@
     <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId59"/>
     <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId60"/>
     <sheet name="Hydraulics" sheetId="93" r:id="rId61"/>
+    <sheet name="Economics" sheetId="95" r:id="rId62"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">#REF!</definedName>
@@ -98,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="273">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -908,6 +909,15 @@
   </si>
   <si>
     <t>INDEX</t>
+  </si>
+  <si>
+    <t>Economic Settings</t>
+  </si>
+  <si>
+    <t>discount_rate</t>
+  </si>
+  <si>
+    <t>CAPEX_lifetime</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1293,6 +1303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1712,15 +1725,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1732,7 +1745,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1746,7 +1759,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1758,7 +1771,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1772,7 +1785,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1786,7 +1799,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1800,7 +1813,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -1814,7 +1827,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -1828,7 +1841,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -1842,7 +1855,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1854,7 +1867,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -1868,7 +1881,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -1882,7 +1895,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1894,7 +1907,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -1908,7 +1921,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -1922,7 +1935,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -1936,7 +1949,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -1950,7 +1963,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1962,7 +1975,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -1974,7 +1987,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -1990,7 +2003,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2002,7 +2015,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2018,7 +2031,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2034,7 +2047,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2050,7 +2063,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2066,7 +2079,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2082,7 +2095,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2098,7 +2111,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2114,7 +2127,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2130,7 +2143,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2149,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2165,7 +2178,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2181,7 +2194,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2197,7 +2210,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2213,7 +2226,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2229,7 +2242,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2271,30 +2284,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2315,7 +2328,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2335,7 +2348,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2355,7 +2368,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2375,7 +2388,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2395,7 +2408,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2415,7 +2428,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2449,30 +2462,30 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2495,7 +2508,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2518,7 +2531,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2541,7 +2554,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2564,7 +2577,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2587,7 +2600,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2610,7 +2623,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2633,107 +2646,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>171</v>
       </c>
@@ -2753,30 +2766,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2799,7 +2812,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -2822,7 +2835,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -2845,7 +2858,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -2868,7 +2881,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -2891,7 +2904,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2925,30 +2938,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>203</v>
       </c>
@@ -2971,7 +2984,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>204</v>
       </c>
@@ -2994,7 +3007,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>205</v>
       </c>
@@ -3017,7 +3030,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3038,7 +3051,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3059,7 +3072,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3093,30 +3106,30 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>241</v>
       </c>
@@ -3139,7 +3152,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>242</v>
       </c>
@@ -3162,7 +3175,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
@@ -3185,7 +3198,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3206,7 +3219,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3227,7 +3240,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3261,30 +3274,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -3307,7 +3320,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
@@ -3330,7 +3343,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -3353,7 +3366,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3374,7 +3387,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3395,7 +3408,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3429,17 +3442,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -3567,7 +3580,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3603,7 +3616,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3639,7 +3652,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -3675,7 +3688,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -3713,7 +3726,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -3749,7 +3762,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -3785,7 +3798,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -3821,7 +3834,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -3857,7 +3870,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -3893,7 +3906,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -3929,7 +3942,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -3965,7 +3978,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -4001,7 +4014,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -4037,7 +4050,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -4088,17 +4101,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4226,7 +4239,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4262,7 +4275,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4298,7 +4311,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4349,17 +4362,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4376,7 +4389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4385,7 +4398,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4394,7 +4407,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4403,7 +4416,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4426,17 +4439,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -4528,7 +4541,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -4564,7 +4577,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -4604,7 +4617,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -4642,7 +4655,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -4680,7 +4693,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -4718,7 +4731,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -4756,7 +4769,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -4796,7 +4809,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -4834,7 +4847,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -4874,7 +4887,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -4912,7 +4925,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -4950,7 +4963,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -4988,7 +5001,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -5026,7 +5039,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -5104,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -5142,7 +5155,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -5178,7 +5191,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -5214,7 +5227,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -5252,7 +5265,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -5328,7 +5341,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -5366,7 +5379,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -5404,7 +5417,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -5442,7 +5455,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -5480,7 +5493,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -5520,7 +5533,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -5556,7 +5569,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -5592,7 +5605,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -5647,61 +5660,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5718,17 +5731,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -5745,7 +5758,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -5754,7 +5767,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -5763,7 +5776,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -5772,7 +5785,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -5781,7 +5794,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -5790,7 +5803,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -5799,7 +5812,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -5808,7 +5821,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -5817,7 +5830,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -5826,7 +5839,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -5835,7 +5848,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -5844,7 +5857,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -5853,7 +5866,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -5862,7 +5875,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -5871,7 +5884,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -5880,7 +5893,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -5889,7 +5902,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -5898,7 +5911,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -5907,7 +5920,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -5916,7 +5929,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -5925,7 +5938,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -5934,7 +5947,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -5943,7 +5956,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -5952,7 +5965,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -5961,7 +5974,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -5970,7 +5983,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -5979,7 +5992,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -5988,7 +6001,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -5997,7 +6010,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6020,17 +6033,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6050,7 +6063,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -6062,7 +6075,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -6072,7 +6085,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -6082,7 +6095,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -6094,7 +6107,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -6104,7 +6117,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -6114,7 +6127,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -6124,7 +6137,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6134,7 +6147,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -6144,7 +6157,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -6154,7 +6167,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -6164,7 +6177,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -6174,7 +6187,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -6186,7 +6199,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -6196,7 +6209,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -6206,7 +6219,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -6216,7 +6229,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -6228,7 +6241,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -6240,7 +6253,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -6250,7 +6263,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6260,7 +6273,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -6270,7 +6283,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -6282,7 +6295,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -6292,7 +6305,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -6302,7 +6315,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -6312,7 +6325,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -6322,7 +6335,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -6332,7 +6345,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -6344,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6369,17 +6382,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6390,56 +6403,56 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6448,84 +6461,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6534,63 +6547,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6612,17 +6625,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6630,7 +6643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>154</v>
       </c>
@@ -6652,17 +6665,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -6670,7 +6683,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -6692,17 +6705,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -6719,7 +6732,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -6730,7 +6743,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -6741,7 +6754,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -6752,7 +6765,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -6763,7 +6776,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -6774,7 +6787,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -6785,7 +6798,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -6796,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -6822,17 +6835,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -6849,7 +6862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -6862,7 +6875,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -6889,17 +6902,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -6910,14 +6923,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -6938,17 +6951,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -6965,7 +6978,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -6974,7 +6987,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6983,7 +6996,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -6992,7 +7005,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7001,7 +7014,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7010,7 +7023,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7019,7 +7032,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7028,7 +7041,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7037,7 +7050,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7046,7 +7059,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7055,7 +7068,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7064,7 +7077,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7073,7 +7086,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7082,7 +7095,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7091,7 +7104,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7115,17 +7128,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -7142,7 +7155,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -7153,7 +7166,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -7164,7 +7177,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -7175,7 +7188,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -7186,7 +7199,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -7197,7 +7210,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -7208,7 +7221,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -7219,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -7242,24 +7255,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
@@ -7280,7 +7293,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7301,67 +7314,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -7377,21 +7390,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -7411,7 +7424,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -7431,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7471,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7491,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7511,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7531,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7551,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7571,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7591,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7611,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7631,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7651,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7671,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7691,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7725,17 +7738,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -7755,7 +7768,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7775,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -7815,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -7849,17 +7862,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -7876,7 +7889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7885,7 +7898,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -7894,7 +7907,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -7903,7 +7916,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -7926,17 +7939,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -7944,7 +7957,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -7964,17 +7977,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8135,7 +8148,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8212,7 +8225,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -8297,7 +8310,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -8370,7 +8383,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -8461,47 +8474,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -8521,21 +8534,21 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -8696,7 +8709,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -8909,7 +8922,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9122,7 +9135,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9335,7 +9348,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -9548,7 +9561,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -9761,7 +9774,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -9974,7 +9987,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -10400,7 +10413,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -10826,7 +10839,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -11039,7 +11052,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -11252,7 +11265,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -11465,7 +11478,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -11678,7 +11691,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -11891,12 +11904,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -11916,21 +11929,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -12091,7 +12104,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12268,7 +12281,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -12373,7 +12386,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -12523,7 +12536,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -12580,42 +12593,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -12635,12 +12648,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -12665,7 +12678,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -12730,7 +12743,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12757,7 +12770,7 @@
       <c r="T3" s="37"/>
       <c r="U3" s="38"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
@@ -12788,7 +12801,7 @@
       <c r="T4" s="37"/>
       <c r="U4" s="38"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>85</v>
       </c>
@@ -12819,7 +12832,7 @@
       <c r="T5" s="37"/>
       <c r="U5" s="38"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>83</v>
       </c>
@@ -12848,7 +12861,7 @@
       <c r="T6" s="37"/>
       <c r="U6" s="38"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -12877,7 +12890,7 @@
       <c r="T7" s="37"/>
       <c r="U7" s="38"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
@@ -12904,7 +12917,7 @@
       <c r="T8" s="37"/>
       <c r="U8" s="38"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
@@ -12935,7 +12948,7 @@
       <c r="T9" s="37"/>
       <c r="U9" s="38"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -12964,7 +12977,7 @@
       <c r="T10" s="37"/>
       <c r="U10" s="38"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>87</v>
       </c>
@@ -12993,7 +13006,7 @@
       <c r="T11" s="37"/>
       <c r="U11" s="38"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
@@ -13020,7 +13033,7 @@
       <c r="T12" s="37"/>
       <c r="U12" s="38"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -13047,7 +13060,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="38"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>125</v>
       </c>
@@ -13074,7 +13087,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="38"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>126</v>
       </c>
@@ -13101,7 +13114,7 @@
       </c>
       <c r="U15" s="38"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>127</v>
       </c>
@@ -13128,7 +13141,7 @@
       <c r="T16" s="44"/>
       <c r="U16" s="38"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>128</v>
       </c>
@@ -13155,7 +13168,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -13182,7 +13195,7 @@
       </c>
       <c r="U18" s="38"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>157</v>
       </c>
@@ -13211,7 +13224,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>158</v>
       </c>
@@ -13238,7 +13251,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>171</v>
       </c>
@@ -13267,7 +13280,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -13298,7 +13311,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -13327,7 +13340,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -13356,7 +13369,7 @@
       <c r="T24" s="44"/>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>161</v>
       </c>
@@ -13385,7 +13398,7 @@
       </c>
       <c r="U25" s="38"/>
     </row>
-    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>160</v>
       </c>
@@ -13428,17 +13441,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -13446,7 +13459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -13454,7 +13467,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -13462,7 +13475,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -13470,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -13478,7 +13491,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -13500,17 +13513,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -13518,7 +13531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -13540,24 +13553,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -13578,7 +13591,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -13599,7 +13612,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -13620,7 +13633,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -13641,7 +13654,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13662,47 +13675,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -13722,17 +13735,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -13740,7 +13753,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -13748,7 +13761,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -13770,17 +13783,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -13941,7 +13954,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -14102,7 +14115,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -14263,7 +14276,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -14424,7 +14437,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>143</v>
       </c>
@@ -14585,7 +14598,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>144</v>
       </c>
@@ -14746,7 +14759,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -14907,7 +14920,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
@@ -15068,7 +15081,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>147</v>
       </c>
@@ -15229,47 +15242,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15289,19 +15302,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15309,7 +15322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15317,7 +15330,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15325,7 +15338,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15333,7 +15346,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15355,17 +15368,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15373,7 +15386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -15395,17 +15408,17 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15425,7 +15438,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -15445,7 +15458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -15465,7 +15478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -15485,7 +15498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -15505,7 +15518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
@@ -15525,7 +15538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>136</v>
       </c>
@@ -15545,7 +15558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>137</v>
       </c>
@@ -15565,34 +15578,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -15609,17 +15622,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -15627,7 +15640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -15635,7 +15648,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -15643,7 +15656,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -15651,7 +15664,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -15659,7 +15672,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -15682,17 +15695,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -15700,7 +15713,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -15708,7 +15721,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -15730,17 +15743,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15748,7 +15761,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15756,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15764,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15772,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15794,19 +15807,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15829,7 +15842,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -15842,7 +15855,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
@@ -15855,7 +15868,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -15868,7 +15881,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
@@ -15881,7 +15894,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -15892,7 +15905,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -15903,7 +15916,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -15914,7 +15927,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -15940,17 +15953,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -15958,7 +15971,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -15966,7 +15979,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -15974,7 +15987,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -15982,7 +15995,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>143</v>
       </c>
@@ -15990,7 +16003,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>144</v>
       </c>
@@ -15998,7 +16011,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -16006,7 +16019,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
@@ -16014,7 +16027,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>147</v>
       </c>
@@ -16036,30 +16049,30 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>135</v>
       </c>
@@ -16082,7 +16095,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -16105,7 +16118,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -16128,7 +16141,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16148,7 +16161,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -16168,7 +16181,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -16188,7 +16201,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -16223,17 +16236,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -16241,7 +16254,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -16249,7 +16262,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -16257,7 +16270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -16265,7 +16278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -16273,7 +16286,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -16281,7 +16294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -16289,7 +16302,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -16297,7 +16310,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -16305,7 +16318,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -16313,7 +16326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -16321,7 +16334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -16329,7 +16342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -16337,7 +16350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -16345,7 +16358,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -16353,7 +16366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -16361,7 +16374,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -16369,7 +16382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
@@ -16377,7 +16390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
@@ -16385,7 +16398,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>137</v>
       </c>
@@ -16393,7 +16406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -16401,7 +16414,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -16424,17 +16437,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>257</v>
       </c>
@@ -16442,7 +16455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -16450,7 +16463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>91</v>
       </c>
@@ -16458,7 +16471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
@@ -16466,7 +16479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>93</v>
       </c>
@@ -16474,7 +16487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>94</v>
       </c>
@@ -16482,7 +16495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>95</v>
       </c>
@@ -16504,17 +16517,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
@@ -16522,7 +16535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>100</v>
       </c>
@@ -16530,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>198</v>
       </c>
@@ -16538,7 +16551,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>199</v>
       </c>
@@ -16546,7 +16559,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>200</v>
       </c>
@@ -16568,17 +16581,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>258</v>
       </c>
@@ -16586,7 +16599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>97</v>
       </c>
@@ -16594,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>203</v>
       </c>
@@ -16602,7 +16615,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>204</v>
       </c>
@@ -16610,7 +16623,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>205</v>
       </c>
@@ -16632,17 +16645,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>260</v>
       </c>
@@ -16650,7 +16663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -16658,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>241</v>
       </c>
@@ -16666,7 +16679,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>242</v>
       </c>
@@ -16674,7 +16687,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>243</v>
       </c>
@@ -16696,17 +16709,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -16714,7 +16727,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -16722,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -16744,17 +16757,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -16771,7 +16784,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -16788,7 +16801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16805,7 +16818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -16822,7 +16835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -16839,7 +16852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -16856,39 +16869,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -16907,17 +16920,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -16934,7 +16947,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -16951,39 +16964,39 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -17001,17 +17014,17 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -17028,7 +17041,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -17045,7 +17058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -17062,39 +17075,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
@@ -17112,18 +17125,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -17131,7 +17144,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>268</v>
       </c>
@@ -17152,23 +17165,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -17189,7 +17202,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -17210,7 +17223,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -17231,7 +17244,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -17252,7 +17265,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
@@ -17286,16 +17299,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>248</v>
       </c>
@@ -17423,7 +17436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>130</v>
       </c>
@@ -17551,7 +17564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
@@ -17679,7 +17692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
@@ -17807,7 +17820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
@@ -17935,7 +17948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>123</v>
       </c>
@@ -18063,7 +18076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>124</v>
       </c>
@@ -18191,7 +18204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>125</v>
       </c>
@@ -18319,7 +18332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>126</v>
       </c>
@@ -18447,7 +18460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>127</v>
       </c>
@@ -18575,7 +18588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>128</v>
       </c>
@@ -18703,7 +18716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>129</v>
       </c>
@@ -18831,7 +18844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
         <v>131</v>
       </c>
@@ -18959,7 +18972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>132</v>
       </c>
@@ -19087,7 +19100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>133</v>
       </c>
@@ -19215,7 +19228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>134</v>
       </c>
@@ -19343,7 +19356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>5</v>
       </c>
@@ -19471,7 +19484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>135</v>
       </c>
@@ -19599,7 +19612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
         <v>136</v>
       </c>
@@ -19727,7 +19740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="50" t="s">
         <v>137</v>
       </c>
@@ -19855,7 +19868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="50" t="s">
         <v>67</v>
       </c>
@@ -19983,7 +19996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>68</v>
       </c>
@@ -20111,7 +20124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>142</v>
       </c>
@@ -20239,7 +20252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
         <v>143</v>
       </c>
@@ -20367,7 +20380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
@@ -20495,7 +20508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
         <v>145</v>
       </c>
@@ -20623,7 +20636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>146</v>
       </c>
@@ -20751,7 +20764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="50" t="s">
         <v>147</v>
       </c>
@@ -20879,7 +20892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
         <v>81</v>
       </c>
@@ -21007,7 +21020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>82</v>
       </c>
@@ -21135,7 +21148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>148</v>
       </c>
@@ -21263,7 +21276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
         <v>150</v>
       </c>
@@ -21391,7 +21404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>83</v>
       </c>
@@ -21519,7 +21532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>84</v>
       </c>
@@ -21647,7 +21660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>85</v>
       </c>
@@ -21775,7 +21788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
         <v>86</v>
       </c>
@@ -21903,7 +21916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>87</v>
       </c>
@@ -22031,7 +22044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
         <v>88</v>
       </c>
@@ -22159,7 +22172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>89</v>
       </c>
@@ -22287,7 +22300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>151</v>
       </c>
@@ -22415,7 +22428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>152</v>
       </c>
@@ -22543,7 +22556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>153</v>
       </c>
@@ -22671,7 +22684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>154</v>
       </c>
@@ -22799,7 +22812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>155</v>
       </c>
@@ -22927,7 +22940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>156</v>
       </c>
@@ -23055,7 +23068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>157</v>
       </c>
@@ -23183,7 +23196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>158</v>
       </c>
@@ -23311,7 +23324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>159</v>
       </c>
@@ -23439,7 +23452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>160</v>
       </c>
@@ -23567,7 +23580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>161</v>
       </c>
@@ -23695,7 +23708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>162</v>
       </c>
@@ -23823,7 +23836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
         <v>163</v>
       </c>
@@ -23951,7 +23964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
         <v>164</v>
       </c>
@@ -24079,7 +24092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
         <v>165</v>
       </c>
@@ -24207,7 +24220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
         <v>166</v>
       </c>
@@ -24335,7 +24348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>167</v>
       </c>
@@ -24463,7 +24476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
         <v>168</v>
       </c>
@@ -24591,7 +24604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
         <v>169</v>
       </c>
@@ -24719,7 +24732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="50" t="s">
         <v>170</v>
       </c>
@@ -24847,7 +24860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="50" t="s">
         <v>171</v>
       </c>
@@ -24988,17 +25001,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -25006,7 +25019,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>263</v>
       </c>
@@ -25014,12 +25027,59 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>262</v>
       </c>
       <c r="B4" s="54">
         <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="55">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="40">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -25035,30 +25095,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -25081,7 +25141,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>142</v>
       </c>
@@ -25104,7 +25164,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -25127,7 +25187,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
@@ -25150,7 +25210,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>145</v>
       </c>
@@ -25173,7 +25233,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>146</v>
       </c>
@@ -25196,7 +25256,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>147</v>
       </c>
@@ -25234,30 +25294,30 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -25278,7 +25338,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25298,7 +25358,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25318,7 +25378,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25338,7 +25398,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25358,7 +25418,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25378,7 +25438,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -25412,30 +25472,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -25458,7 +25518,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25478,7 +25538,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25498,7 +25558,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25518,7 +25578,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25538,7 +25598,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25558,7 +25618,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA1116-7D67-4951-AAC0-08F92A26DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208342E-2DC7-47CB-B788-4D2AD2C9401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="53" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="55" activeTab="63" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -75,6 +75,8 @@
     <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId60"/>
     <sheet name="Hydraulics" sheetId="93" r:id="rId61"/>
     <sheet name="Economics" sheetId="95" r:id="rId62"/>
+    <sheet name="PadWaterQuality" sheetId="96" r:id="rId63"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="97" r:id="rId64"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">#REF!</definedName>
@@ -99,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="277">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -918,16 +920,29 @@
   </si>
   <si>
     <t>CAPEX_lifetime</t>
+  </si>
+  <si>
+    <t>Water Quality at Production Pads (mg/L)</t>
+  </si>
+  <si>
+    <t>Pads</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Initial Water Quality at Storage (mg/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +1001,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1007,7 +1029,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1184,12 +1206,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1308,8 +1413,30 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -25044,7 +25171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -25080,6 +25207,229 @@
       </c>
       <c r="B4" s="40">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32CB9AD-BE1A-4B42-ACBF-244C18AEB0E2}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="58">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="59">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="59">
+        <v>241833.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="59">
+        <v>188503.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="59">
+        <v>146716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="59">
+        <v>216563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="59">
+        <v>150626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="59">
+        <v>247061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="59">
+        <v>180968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="59">
+        <v>195584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="59">
+        <v>148655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="59">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="59">
+        <v>222724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="59">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="59">
+        <v>240977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="59">
+        <v>192794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="60">
+        <v>216769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105E52B2-E3FA-4F38-8D25-CE95F27EC564}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" activeCellId="1" sqref="J12 D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="62">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208342E-2DC7-47CB-B788-4D2AD2C9401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77B60F-605C-46C1-AC2F-C7986D780800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="55" activeTab="63" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="55" activeTab="62" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="278">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>Initial Water Quality at Storage (mg/L)</t>
+  </si>
+  <si>
+    <t>PADS</t>
   </si>
 </sst>
 </file>
@@ -16833,7 +16836,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16851,7 +16854,7 @@
         <v>255</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -25218,8 +25221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32CB9AD-BE1A-4B42-ACBF-244C18AEB0E2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25234,7 +25237,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>275</v>
@@ -25402,7 +25405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105E52B2-E3FA-4F38-8D25-CE95F27EC564}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" activeCellId="1" sqref="J12 D13"/>
     </sheetView>
   </sheetViews>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900FB7E-A4FB-4990-8DB6-20A229D53679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B757F140-DC91-4A67-9410-6B01CD0E1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16680" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="56" activeTab="59" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -17386,8 +17386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17532,7 +17532,7 @@
         <v>130</v>
       </c>
       <c r="B3" s="46">
-        <v>5.7039999999999997</v>
+        <v>1.0969230769230769</v>
       </c>
       <c r="C3" s="46">
         <v>0</v>
@@ -17672,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="46">
-        <v>6.7388000000000003</v>
+        <v>1.295923076923077</v>
       </c>
       <c r="G4" s="46">
         <v>0</v>
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="46">
-        <v>5.0251999999999999</v>
+        <v>0.9663846153846154</v>
       </c>
       <c r="H5" s="46">
         <v>0</v>
@@ -17946,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="46">
-        <v>10.0296</v>
+        <v>1.9287692307692308</v>
       </c>
       <c r="M6" s="46">
         <v>0</v>
@@ -18071,13 +18071,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="46">
-        <v>23.6739469471283</v>
+        <v>4.5526821052169808</v>
       </c>
       <c r="L7" s="46">
         <v>0</v>
       </c>
       <c r="M7" s="46">
-        <v>5.9484000000000004</v>
+        <v>1.143923076923077</v>
       </c>
       <c r="N7" s="46">
         <v>0</v>
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="46">
-        <v>9.9032</v>
+        <v>1.9044615384615386</v>
       </c>
       <c r="R8" s="46">
         <v>0</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="46">
-        <v>12.288903996290491</v>
+        <v>2.3632507685174025</v>
       </c>
       <c r="Q9" s="46">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="46">
-        <v>3.9807999999999999</v>
+        <v>0.7655384615384615</v>
       </c>
       <c r="T10" s="46">
         <v>0</v>
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="46">
-        <v>9.6988000000000003</v>
+        <v>1.8651538461538462</v>
       </c>
       <c r="W11" s="46">
         <v>0</v>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="46">
-        <v>9.6148000000000007</v>
+        <v>1.849</v>
       </c>
       <c r="U12" s="46">
         <v>0</v>
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="46">
-        <v>15.318800000000001</v>
+        <v>2.9459230769230773</v>
       </c>
       <c r="AA13" s="46">
         <v>0</v>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="46">
-        <v>3.4019999999999997</v>
+        <v>0.65423076923076917</v>
       </c>
       <c r="AC14" s="46">
         <v>0</v>
@@ -19146,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="46">
-        <v>3.5811999999999999</v>
+        <v>0.68869230769230771</v>
       </c>
       <c r="AC15" s="46">
         <v>0</v>
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="46">
-        <v>4.97</v>
+        <v>0.95576923076923082</v>
       </c>
       <c r="AC16" s="46">
         <v>0</v>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <v>9.6996000000000002</v>
+        <v>1.8653076923076923</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="46">
-        <v>4.484</v>
+        <v>0.86230769230769222</v>
       </c>
       <c r="E18" s="46">
         <v>0</v>
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="46">
-        <v>28.063880000000005</v>
+        <v>5.3969000000000005</v>
       </c>
       <c r="AK18" s="32">
         <v>0</v>
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="46">
-        <v>8.5172000000000008</v>
+        <v>1.637923076923077</v>
       </c>
       <c r="L19" s="46">
         <v>0</v>
@@ -19682,7 +19682,7 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="46">
-        <v>24.708839999999999</v>
+        <v>4.7516999999999996</v>
       </c>
       <c r="AK19" s="32">
         <v>0</v>
@@ -19756,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="46">
-        <v>8.2788000000000004</v>
+        <v>1.5920769230769232</v>
       </c>
       <c r="S20" s="46">
         <v>0</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="32">
-        <v>37.559080000000002</v>
+        <v>7.222900000000001</v>
       </c>
       <c r="AL20" s="35">
         <v>0</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="11">
-        <v>8.8379999999999992</v>
+        <v>1.6996153846153845</v>
       </c>
       <c r="Y21" s="11">
         <v>0</v>
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="12">
-        <v>37.183640000000004</v>
+        <v>7.1507000000000005</v>
       </c>
       <c r="AL21" s="36">
         <v>0</v>
@@ -19967,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="55">
-        <v>16.300963910394145</v>
+        <v>3.1348007519988741</v>
       </c>
       <c r="D22" s="46">
         <v>0</v>
@@ -20051,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="55">
-        <v>16.686799999999998</v>
+        <v>3.2089999999999996</v>
       </c>
       <c r="AF22" s="46">
         <v>0</v>
@@ -20092,19 +20092,19 @@
         <v>83</v>
       </c>
       <c r="B23" s="55">
-        <v>16.300963910394145</v>
+        <v>3.1348007519988741</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
       </c>
       <c r="D23" s="46">
-        <v>3.3188</v>
+        <v>0.63823076923076927</v>
       </c>
       <c r="E23" s="46">
         <v>0</v>
       </c>
       <c r="F23" s="46">
-        <v>7.2567999999999993</v>
+        <v>1.3955384615384614</v>
       </c>
       <c r="G23" s="46">
         <v>0</v>
@@ -20223,13 +20223,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="46">
-        <v>3.3188</v>
+        <v>0.63823076923076927</v>
       </c>
       <c r="D24" s="46">
         <v>0</v>
       </c>
       <c r="E24" s="46">
-        <v>3.3251999999999997</v>
+        <v>0.63946153846153841</v>
       </c>
       <c r="F24" s="46">
         <v>0</v>
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="46">
-        <v>4.484</v>
+        <v>0.86230769230769222</v>
       </c>
       <c r="AN24" s="46">
         <v>0</v>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="46">
-        <v>3.3251999999999997</v>
+        <v>0.63946153846153841</v>
       </c>
       <c r="E25" s="46">
         <v>0</v>
@@ -20363,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="46">
-        <v>5.0132000000000003</v>
+        <v>0.96407692307692316</v>
       </c>
       <c r="H25" s="46">
         <v>0</v>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="46">
-        <v>5.2652000000000001</v>
+        <v>1.0125384615384616</v>
       </c>
       <c r="AG25" s="46">
         <v>0</v>
@@ -20479,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="55">
-        <v>7.2567999999999993</v>
+        <v>1.3955384615384614</v>
       </c>
       <c r="D26" s="46">
         <v>0</v>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="46">
-        <v>5.7724000000000002</v>
+        <v>1.1100769230769232</v>
       </c>
       <c r="J26" s="46">
         <v>0</v>
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="46">
-        <v>5.0132000000000003</v>
+        <v>0.96407692307692316</v>
       </c>
       <c r="F27" s="46">
         <v>0</v>
@@ -20622,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="46">
-        <v>4.6120000000000001</v>
+        <v>0.88692307692307693</v>
       </c>
       <c r="I27" s="46">
         <v>0</v>
@@ -20747,16 +20747,16 @@
         <v>0</v>
       </c>
       <c r="G28" s="46">
-        <v>4.6120000000000001</v>
+        <v>0.88692307692307693</v>
       </c>
       <c r="H28" s="46">
         <v>0</v>
       </c>
       <c r="I28" s="46">
-        <v>2.4312</v>
+        <v>0.46753846153846157</v>
       </c>
       <c r="J28" s="46">
-        <v>9.7796000000000003</v>
+        <v>1.8806923076923077</v>
       </c>
       <c r="K28" s="46">
         <v>0</v>
@@ -20872,13 +20872,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="46">
-        <v>5.7724000000000002</v>
+        <v>1.1100769230769232</v>
       </c>
       <c r="G29" s="46">
         <v>0</v>
       </c>
       <c r="H29" s="46">
-        <v>2.4312</v>
+        <v>0.46753846153846157</v>
       </c>
       <c r="I29" s="46">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="46">
-        <v>7.0396000000000001</v>
+        <v>1.3537692307692308</v>
       </c>
       <c r="AK29" s="32">
         <v>0</v>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="46">
-        <v>9.7796000000000003</v>
+        <v>1.8806923076923077</v>
       </c>
       <c r="I30" s="46">
         <v>0</v>
@@ -21015,10 +21015,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="46">
-        <v>3.9751999999999996</v>
+        <v>0.76446153846153841</v>
       </c>
       <c r="L30" s="46">
-        <v>15.5404</v>
+        <v>2.9885384615384614</v>
       </c>
       <c r="M30" s="46">
         <v>0</v>
@@ -21140,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="46">
-        <v>3.9751999999999996</v>
+        <v>0.76446153846153841</v>
       </c>
       <c r="K31" s="46">
         <v>0</v>
@@ -21149,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="46">
-        <v>29.622346947128303</v>
+        <v>5.6966051821400585</v>
       </c>
       <c r="N31" s="46">
         <v>0</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="46">
-        <v>8.5172000000000008</v>
+        <v>1.637923076923077</v>
       </c>
       <c r="AO31" s="46">
         <v>0</v>
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="46">
-        <v>15.5404</v>
+        <v>2.9885384615384614</v>
       </c>
       <c r="K32" s="46">
         <v>0</v>
@@ -21280,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="46">
-        <v>10.572000000000001</v>
+        <v>2.0330769230769232</v>
       </c>
       <c r="O32" s="46">
         <v>0</v>
@@ -21399,7 +21399,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="46">
-        <v>29.622346947128303</v>
+        <v>5.6966051821400585</v>
       </c>
       <c r="L33" s="46">
         <v>0</v>
@@ -21411,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="46">
-        <v>19.539442440750435</v>
+        <v>3.757585084759699</v>
       </c>
       <c r="P33" s="46">
         <v>0</v>
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="32">
-        <v>4.34</v>
+        <v>0.83461538461538465</v>
       </c>
       <c r="AM33" s="46">
         <v>0</v>
@@ -21530,7 +21530,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="46">
-        <v>10.572000000000001</v>
+        <v>2.0330769230769232</v>
       </c>
       <c r="M34" s="46">
         <v>0</v>
@@ -21539,7 +21539,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="46">
-        <v>12.435062680670844</v>
+        <v>2.391358207821316</v>
       </c>
       <c r="P34" s="46">
         <v>0</v>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="46">
-        <v>12.073599999999999</v>
+        <v>2.3218461538461534</v>
       </c>
       <c r="AH34" s="46">
         <v>0</v>
@@ -21661,10 +21661,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="46">
-        <v>19.539442440750435</v>
+        <v>3.757585084759699</v>
       </c>
       <c r="N35" s="46">
-        <v>12.435062680670844</v>
+        <v>2.391358207821316</v>
       </c>
       <c r="O35" s="46">
         <v>0</v>
@@ -21712,7 +21712,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="32">
-        <v>5.5836000000000006</v>
+        <v>1.0737692307692308</v>
       </c>
       <c r="AE35" s="46">
         <v>0</v>
@@ -21801,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="46">
-        <v>5.4215999999999998</v>
+        <v>1.0426153846153845</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="32">
-        <v>2.8575999999999997</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="AE36" s="46">
         <v>0</v>
@@ -21926,13 +21926,13 @@
         <v>0</v>
       </c>
       <c r="P37" s="46">
-        <v>5.4215999999999998</v>
+        <v>1.0426153846153845</v>
       </c>
       <c r="Q37" s="46">
         <v>0</v>
       </c>
       <c r="R37" s="46">
-        <v>12.8013468273532</v>
+        <v>2.4617974667986924</v>
       </c>
       <c r="S37" s="46">
         <v>0</v>
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="46">
-        <v>12.8013468273532</v>
+        <v>2.4617974667986924</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -22108,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="46">
-        <v>25.943965577156415</v>
+        <v>4.9892241494531566</v>
       </c>
       <c r="AI38" s="32">
         <v>0</v>
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
       <c r="AO38" s="46">
-        <v>8.2788000000000004</v>
+        <v>1.5920769230769232</v>
       </c>
       <c r="AP38" s="32">
         <v>0</v>
@@ -22194,7 +22194,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="46">
-        <v>3.6275999999999997</v>
+        <v>0.69761538461538464</v>
       </c>
       <c r="U39" s="46">
         <v>0</v>
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="46">
-        <v>13.675999999999998</v>
+        <v>2.63</v>
       </c>
       <c r="AI39" s="32">
         <v>0</v>
@@ -22319,7 +22319,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="46">
-        <v>3.6275999999999997</v>
+        <v>0.69761538461538464</v>
       </c>
       <c r="T40" s="46">
         <v>0</v>
@@ -22331,7 +22331,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="46">
-        <v>21.991199999999999</v>
+        <v>4.2290769230769225</v>
       </c>
       <c r="X40" s="46">
         <v>0</v>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="46">
-        <v>2.9739999999999998</v>
+        <v>0.57192307692307687</v>
       </c>
       <c r="W41" s="46">
         <v>0</v>
@@ -22480,7 +22480,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="32">
-        <v>3.8188</v>
+        <v>0.73438461538461541</v>
       </c>
       <c r="AE41" s="46">
         <v>0</v>
@@ -22501,7 +22501,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="32">
-        <v>9.0667999999999989</v>
+        <v>1.7436153846153843</v>
       </c>
       <c r="AL41" s="32">
         <v>0</v>
@@ -22581,13 +22581,13 @@
         <v>0</v>
       </c>
       <c r="U42" s="46">
-        <v>2.9739999999999998</v>
+        <v>0.57192307692307687</v>
       </c>
       <c r="V42" s="46">
         <v>0</v>
       </c>
       <c r="W42" s="46">
-        <v>2.9560000000000004</v>
+        <v>0.56846153846153846</v>
       </c>
       <c r="X42" s="46">
         <v>0</v>
@@ -22706,19 +22706,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="46">
-        <v>21.991199999999999</v>
+        <v>4.2290769230769225</v>
       </c>
       <c r="U43" s="46">
         <v>0</v>
       </c>
       <c r="V43" s="46">
-        <v>2.9560000000000004</v>
+        <v>0.56846153846153846</v>
       </c>
       <c r="W43" s="46">
         <v>0</v>
       </c>
       <c r="X43" s="46">
-        <v>11.505599999999999</v>
+        <v>2.2126153846153844</v>
       </c>
       <c r="Y43" s="46">
         <v>0</v>
@@ -22745,7 +22745,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="46">
-        <v>15.523199999999999</v>
+        <v>2.9852307692307689</v>
       </c>
       <c r="AH43" s="46">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="46">
-        <v>11.505599999999999</v>
+        <v>2.2126153846153844</v>
       </c>
       <c r="X44" s="46">
         <v>0</v>
       </c>
       <c r="Y44" s="46">
-        <v>11.4428</v>
+        <v>2.2005384615384616</v>
       </c>
       <c r="Z44" s="46">
         <v>0</v>
@@ -22900,7 +22900,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="32">
-        <v>8.8379999999999992</v>
+        <v>1.6996153846153845</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -22974,13 +22974,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="46">
-        <v>11.4428</v>
+        <v>2.2005384615384616</v>
       </c>
       <c r="Y45" s="46">
         <v>0</v>
       </c>
       <c r="Z45" s="46">
-        <v>5.0924000000000005</v>
+        <v>0.97930769230769243</v>
       </c>
       <c r="AA45" s="46">
         <v>0</v>
@@ -23105,13 +23105,13 @@
         <v>0</v>
       </c>
       <c r="Y46" s="46">
-        <v>5.0924000000000005</v>
+        <v>0.97930769230769243</v>
       </c>
       <c r="Z46" s="46">
         <v>0</v>
       </c>
       <c r="AA46" s="46">
-        <v>6.3364000000000003</v>
+        <v>1.2185384615384616</v>
       </c>
       <c r="AB46" s="46">
         <v>0</v>
@@ -23236,16 +23236,16 @@
         <v>0</v>
       </c>
       <c r="Z47" s="46">
-        <v>6.3364000000000003</v>
+        <v>1.2185384615384616</v>
       </c>
       <c r="AA47" s="46">
         <v>0</v>
       </c>
       <c r="AB47" s="46">
-        <v>6.6024000000000003</v>
+        <v>1.2696923076923077</v>
       </c>
       <c r="AC47" s="46">
-        <v>7.1392000000000007</v>
+        <v>1.3729230769230771</v>
       </c>
       <c r="AD47" s="32">
         <v>0</v>
@@ -23367,7 +23367,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="46">
-        <v>6.6024000000000003</v>
+        <v>1.2696923076923077</v>
       </c>
       <c r="AB48" s="46">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="46">
-        <v>7.1392000000000007</v>
+        <v>1.3729230769230771</v>
       </c>
       <c r="AB49" s="46">
         <v>0</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="AI49" s="32">
-        <v>8.9832000000000001</v>
+        <v>1.7275384615384617</v>
       </c>
       <c r="AJ49" s="46">
         <v>0</v>
@@ -23587,10 +23587,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="11">
-        <v>5.5836000000000006</v>
+        <v>1.0737692307692308</v>
       </c>
       <c r="P50" s="11">
-        <v>2.8575999999999997</v>
+        <v>0.54953846153846153</v>
       </c>
       <c r="Q50" s="11">
         <v>0</v>
@@ -23605,7 +23605,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="11">
-        <v>3.8188</v>
+        <v>0.73438461538461541</v>
       </c>
       <c r="V50" s="11">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="11">
-        <v>4.34</v>
+        <v>0.83461538461538465</v>
       </c>
       <c r="N51" s="11">
         <v>0</v>
@@ -23915,7 +23915,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="46">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="AN52" s="46">
         <v>0</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="AM53" s="46">
-        <v>10.8</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="AN53" s="46">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="AN54" s="46">
-        <v>10.4</v>
+        <v>2</v>
       </c>
       <c r="AO54" s="46">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="46">
-        <v>10.8</v>
+        <v>2.0769230769230771</v>
       </c>
       <c r="AO55" s="46">
         <v>0</v>
@@ -24433,7 +24433,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="46">
-        <v>12</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="AP56" s="32">
         <v>0</v>
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="AO57" s="46">
-        <v>11.2</v>
+        <v>2.1538461538461537</v>
       </c>
       <c r="AP57" s="32">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="32">
-        <v>8.8000000000000007</v>
+        <v>1.6923076923076925</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -24820,7 +24820,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="12">
-        <v>8.4</v>
+        <v>1.6153846153846154</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="46">
-        <v>7.0396000000000001</v>
+        <v>1.3537692307692308</v>
       </c>
       <c r="J60" s="46">
         <v>0</v>
@@ -24939,10 +24939,10 @@
         <v>0</v>
       </c>
       <c r="AM60" s="46">
-        <v>28.063880000000005</v>
+        <v>5.3969000000000005</v>
       </c>
       <c r="AN60" s="46">
-        <v>24.708839999999999</v>
+        <v>4.7516999999999996</v>
       </c>
       <c r="AO60" s="46">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="11">
-        <v>9.0667999999999989</v>
+        <v>1.7436153846153843</v>
       </c>
       <c r="V61" s="11">
         <v>0</v>
@@ -25073,10 +25073,10 @@
         <v>0</v>
       </c>
       <c r="AO61" s="11">
-        <v>37.559080000000002</v>
+        <v>7.222900000000001</v>
       </c>
       <c r="AP61" s="12">
-        <v>37.183640000000004</v>
+        <v>7.1507000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77B60F-605C-46C1-AC2F-C7986D780800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8100AA2-40A7-4A01-85FB-9A0BF20551AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="55" activeTab="62" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" firstSheet="58" activeTab="64" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -77,6 +77,7 @@
     <sheet name="Economics" sheetId="95" r:id="rId62"/>
     <sheet name="PadWaterQuality" sheetId="96" r:id="rId63"/>
     <sheet name="StorageInitialWaterQuality" sheetId="97" r:id="rId64"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="98" r:id="rId65"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">#REF!</definedName>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="279">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -935,6 +936,9 @@
   </si>
   <si>
     <t>PADS</t>
+  </si>
+  <si>
+    <t>Initial Water Quality at Completiond Pad Storage (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -1855,15 +1859,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1875,7 +1879,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1889,7 +1893,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1901,7 +1905,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1915,7 +1919,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1929,7 +1933,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1943,7 +1947,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -1957,7 +1961,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -1971,7 +1975,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -1985,7 +1989,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1997,7 +2001,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -2011,7 +2015,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2025,7 +2029,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2037,7 +2041,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2051,7 +2055,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2065,7 +2069,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2079,7 +2083,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2093,7 +2097,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2105,7 +2109,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2117,7 +2121,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2133,7 +2137,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2145,7 +2149,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2161,7 +2165,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2177,7 +2181,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2193,7 +2197,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2209,7 +2213,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2225,7 +2229,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2241,7 +2245,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2257,7 +2261,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2273,7 +2277,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2292,7 +2296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2308,7 +2312,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2324,7 +2328,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2340,7 +2344,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2356,7 +2360,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2372,7 +2376,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2414,30 +2418,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2458,7 +2462,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2478,7 +2482,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2498,7 +2502,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2518,7 +2522,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2538,7 +2542,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2558,7 +2562,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2592,30 +2596,30 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2661,7 +2665,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2684,7 +2688,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2707,7 +2711,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2730,7 +2734,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2753,7 +2757,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2776,107 +2780,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>171</v>
       </c>
@@ -2896,30 +2900,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -2988,7 +2992,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -3011,7 +3015,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3034,7 +3038,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3068,30 +3072,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>203</v>
       </c>
@@ -3114,7 +3118,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>204</v>
       </c>
@@ -3137,7 +3141,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>205</v>
       </c>
@@ -3160,7 +3164,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3181,7 +3185,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3202,7 +3206,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3236,30 +3240,30 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>241</v>
       </c>
@@ -3282,7 +3286,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>242</v>
       </c>
@@ -3305,7 +3309,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
@@ -3328,7 +3332,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3349,7 +3353,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3370,7 +3374,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3404,30 +3408,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
@@ -3473,7 +3477,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -3496,7 +3500,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3517,7 +3521,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3538,7 +3542,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3572,17 +3576,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -3674,7 +3678,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -3710,7 +3714,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3746,7 +3750,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3782,7 +3786,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -3856,7 +3860,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -3964,7 +3968,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -4000,7 +4004,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -4036,7 +4040,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -4072,7 +4076,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -4108,7 +4112,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -4144,7 +4148,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -4180,7 +4184,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -4231,17 +4235,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4369,7 +4373,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4405,7 +4409,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4441,7 +4445,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4492,17 +4496,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +4532,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4537,7 +4541,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4546,7 +4550,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4569,17 +4573,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -4671,7 +4675,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -4707,7 +4711,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -4747,7 +4751,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -4785,7 +4789,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -4823,7 +4827,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -4861,7 +4865,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -4899,7 +4903,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -4939,7 +4943,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -4977,7 +4981,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -5017,7 +5021,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -5055,7 +5059,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -5093,7 +5097,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -5131,7 +5135,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -5169,7 +5173,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -5209,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -5285,7 +5289,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -5321,7 +5325,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -5357,7 +5361,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -5395,7 +5399,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -5471,7 +5475,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -5509,7 +5513,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -5547,7 +5551,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -5585,7 +5589,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -5623,7 +5627,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -5663,7 +5667,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -5699,7 +5703,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -5735,7 +5739,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -5790,61 +5794,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5861,17 +5865,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -5897,7 +5901,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -5906,7 +5910,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -5915,7 +5919,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -5924,7 +5928,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -5933,7 +5937,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -5942,7 +5946,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -5951,7 +5955,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -5960,7 +5964,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -5969,7 +5973,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -5978,7 +5982,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -5987,7 +5991,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -6005,7 +6009,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -6014,7 +6018,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -6023,7 +6027,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -6032,7 +6036,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -6041,7 +6045,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -6050,7 +6054,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -6059,7 +6063,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6068,7 +6072,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -6077,7 +6081,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -6086,7 +6090,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -6095,7 +6099,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -6104,7 +6108,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -6113,7 +6117,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -6122,7 +6126,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -6131,7 +6135,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -6140,7 +6144,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6163,17 +6167,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -6205,7 +6209,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -6215,7 +6219,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -6225,7 +6229,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -6237,7 +6241,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -6247,7 +6251,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -6257,7 +6261,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -6267,7 +6271,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6277,7 +6281,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -6287,7 +6291,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -6297,7 +6301,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -6307,7 +6311,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -6317,7 +6321,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -6329,7 +6333,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -6339,7 +6343,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -6349,7 +6353,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -6359,7 +6363,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -6371,7 +6375,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -6383,7 +6387,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -6413,7 +6417,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -6425,7 +6429,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -6435,7 +6439,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -6445,7 +6449,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -6455,7 +6459,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -6465,7 +6469,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -6475,7 +6479,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6512,17 +6516,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6533,56 +6537,56 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6591,84 +6595,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6677,63 +6681,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6755,17 +6759,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>154</v>
       </c>
@@ -6795,17 +6799,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -6835,17 +6839,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -6873,7 +6877,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -6884,7 +6888,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -6895,7 +6899,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -6906,7 +6910,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -6917,7 +6921,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -6928,7 +6932,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -6965,17 +6969,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -7005,7 +7009,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -7032,17 +7036,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -7053,14 +7057,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -7081,17 +7085,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -7108,7 +7112,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -7117,7 +7121,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7126,7 +7130,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7135,7 +7139,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7144,7 +7148,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7153,7 +7157,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7162,7 +7166,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7171,7 +7175,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7180,7 +7184,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7189,7 +7193,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7198,7 +7202,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7207,7 +7211,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7216,7 +7220,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7225,7 +7229,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7234,7 +7238,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7258,17 +7262,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -7296,7 +7300,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -7307,7 +7311,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -7318,7 +7322,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -7329,7 +7333,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -7340,7 +7344,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -7351,7 +7355,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -7385,24 +7389,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
@@ -7423,7 +7427,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7444,67 +7448,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -7524,17 +7528,17 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7674,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7694,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7714,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7734,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7754,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7814,7 +7818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7834,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7868,17 +7872,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -7898,7 +7902,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7918,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -7938,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -7992,17 +7996,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8028,7 +8032,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -8037,7 +8041,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -8046,7 +8050,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -8069,17 +8073,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -8107,17 +8111,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8355,7 +8359,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -8440,7 +8444,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -8513,7 +8517,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -8604,47 +8608,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -8664,21 +8668,21 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -9052,7 +9056,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -9691,7 +9695,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -9904,7 +9908,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -10756,7 +10760,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -10969,7 +10973,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -11182,7 +11186,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -11608,7 +11612,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -11821,7 +11825,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -12034,12 +12038,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12059,21 +12063,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="9"/>
-    <col min="2" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="2" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -12234,7 +12238,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -12723,42 +12727,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -12778,12 +12782,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -12808,7 +12812,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12900,7 +12904,7 @@
       <c r="T3" s="37"/>
       <c r="U3" s="38"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
@@ -12931,7 +12935,7 @@
       <c r="T4" s="37"/>
       <c r="U4" s="38"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>85</v>
       </c>
@@ -12962,7 +12966,7 @@
       <c r="T5" s="37"/>
       <c r="U5" s="38"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>83</v>
       </c>
@@ -12991,7 +12995,7 @@
       <c r="T6" s="37"/>
       <c r="U6" s="38"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -13020,7 +13024,7 @@
       <c r="T7" s="37"/>
       <c r="U7" s="38"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
@@ -13047,7 +13051,7 @@
       <c r="T8" s="37"/>
       <c r="U8" s="38"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
@@ -13078,7 +13082,7 @@
       <c r="T9" s="37"/>
       <c r="U9" s="38"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -13107,7 +13111,7 @@
       <c r="T10" s="37"/>
       <c r="U10" s="38"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>87</v>
       </c>
@@ -13136,7 +13140,7 @@
       <c r="T11" s="37"/>
       <c r="U11" s="38"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
@@ -13163,7 +13167,7 @@
       <c r="T12" s="37"/>
       <c r="U12" s="38"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -13190,7 +13194,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="38"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>125</v>
       </c>
@@ -13217,7 +13221,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="38"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>126</v>
       </c>
@@ -13244,7 +13248,7 @@
       </c>
       <c r="U15" s="38"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>127</v>
       </c>
@@ -13271,7 +13275,7 @@
       <c r="T16" s="44"/>
       <c r="U16" s="38"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>128</v>
       </c>
@@ -13298,7 +13302,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -13325,7 +13329,7 @@
       </c>
       <c r="U18" s="38"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>157</v>
       </c>
@@ -13354,7 +13358,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>158</v>
       </c>
@@ -13381,7 +13385,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>171</v>
       </c>
@@ -13410,7 +13414,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -13441,7 +13445,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -13470,7 +13474,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -13499,7 +13503,7 @@
       <c r="T24" s="44"/>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>161</v>
       </c>
@@ -13528,7 +13532,7 @@
       </c>
       <c r="U25" s="38"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>160</v>
       </c>
@@ -13571,17 +13575,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -13589,7 +13593,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -13597,7 +13601,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -13613,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -13621,7 +13625,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -13643,17 +13647,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -13683,24 +13687,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -13721,7 +13725,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -13742,7 +13746,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -13763,7 +13767,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -13784,7 +13788,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13805,47 +13809,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -13865,17 +13869,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -13891,7 +13895,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -13913,17 +13917,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -14084,7 +14088,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -14245,7 +14249,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -14406,7 +14410,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -14567,7 +14571,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>143</v>
       </c>
@@ -14728,7 +14732,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>144</v>
       </c>
@@ -14889,7 +14893,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -15050,7 +15054,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>147</v>
       </c>
@@ -15372,47 +15376,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15432,19 +15436,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15452,7 +15456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15468,7 +15472,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15476,7 +15480,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15498,17 +15502,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15516,7 +15520,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -15538,17 +15542,17 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15568,7 +15572,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -15588,7 +15592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -15608,7 +15612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -15628,7 +15632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -15648,7 +15652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
@@ -15668,7 +15672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>136</v>
       </c>
@@ -15688,7 +15692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>137</v>
       </c>
@@ -15708,34 +15712,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -15752,17 +15756,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -15770,7 +15774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -15794,7 +15798,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -15802,7 +15806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -15825,17 +15829,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -15843,7 +15847,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -15851,7 +15855,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -15873,17 +15877,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15891,7 +15895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15899,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15907,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15915,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15937,19 +15941,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -15985,7 +15989,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
@@ -15998,7 +16002,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -16011,7 +16015,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -16035,7 +16039,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -16046,7 +16050,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -16057,7 +16061,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -16083,17 +16087,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -16101,7 +16105,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -16117,7 +16121,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>143</v>
       </c>
@@ -16133,7 +16137,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>144</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
@@ -16157,7 +16161,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>147</v>
       </c>
@@ -16179,30 +16183,30 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>135</v>
       </c>
@@ -16225,7 +16229,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -16248,7 +16252,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -16271,7 +16275,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16291,7 +16295,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -16311,7 +16315,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -16331,7 +16335,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -16366,17 +16370,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -16384,7 +16388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -16392,7 +16396,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -16400,7 +16404,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -16408,7 +16412,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -16424,7 +16428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -16432,7 +16436,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -16448,7 +16452,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -16456,7 +16460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -16464,7 +16468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -16472,7 +16476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -16480,7 +16484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -16488,7 +16492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -16496,7 +16500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -16504,7 +16508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -16512,7 +16516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>137</v>
       </c>
@@ -16536,7 +16540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -16544,7 +16548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -16567,17 +16571,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>257</v>
       </c>
@@ -16585,7 +16589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -16593,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>91</v>
       </c>
@@ -16601,7 +16605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
@@ -16609,7 +16613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>93</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>94</v>
       </c>
@@ -16625,7 +16629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>95</v>
       </c>
@@ -16644,20 +16648,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
@@ -16665,7 +16669,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>100</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>198</v>
       </c>
@@ -16681,7 +16685,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>199</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>200</v>
       </c>
@@ -16711,17 +16715,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>258</v>
       </c>
@@ -16729,7 +16733,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>97</v>
       </c>
@@ -16737,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>203</v>
       </c>
@@ -16745,7 +16749,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>204</v>
       </c>
@@ -16753,7 +16757,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>205</v>
       </c>
@@ -16775,17 +16779,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>260</v>
       </c>
@@ -16793,7 +16797,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -16801,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>241</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>242</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>243</v>
       </c>
@@ -16839,17 +16843,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -16857,7 +16861,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -16865,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -16887,17 +16891,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -16914,7 +16918,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -16931,7 +16935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -16965,7 +16969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -16982,7 +16986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -16999,39 +17003,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -17050,17 +17054,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -17077,7 +17081,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -17094,39 +17098,39 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -17144,17 +17148,17 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -17171,7 +17175,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -17188,7 +17192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -17205,39 +17209,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
@@ -17255,18 +17259,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -17274,7 +17278,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
         <v>268</v>
       </c>
@@ -17295,23 +17299,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -17332,7 +17336,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -17353,7 +17357,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -17374,7 +17378,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -17395,7 +17399,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
@@ -17429,16 +17433,16 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>248</v>
       </c>
@@ -17566,7 +17570,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>130</v>
       </c>
@@ -17694,7 +17698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
@@ -17822,7 +17826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
@@ -17950,7 +17954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
@@ -18078,7 +18082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>123</v>
       </c>
@@ -18206,7 +18210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="50" t="s">
         <v>124</v>
       </c>
@@ -18334,7 +18338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>125</v>
       </c>
@@ -18462,7 +18466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="s">
         <v>126</v>
       </c>
@@ -18590,7 +18594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>127</v>
       </c>
@@ -18718,7 +18722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="50" t="s">
         <v>128</v>
       </c>
@@ -18846,7 +18850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="50" t="s">
         <v>129</v>
       </c>
@@ -18974,7 +18978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="50" t="s">
         <v>131</v>
       </c>
@@ -19102,7 +19106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="50" t="s">
         <v>132</v>
       </c>
@@ -19230,7 +19234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>133</v>
       </c>
@@ -19358,7 +19362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>134</v>
       </c>
@@ -19486,7 +19490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>5</v>
       </c>
@@ -19614,7 +19618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>135</v>
       </c>
@@ -19742,7 +19746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>136</v>
       </c>
@@ -19870,7 +19874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="50" t="s">
         <v>137</v>
       </c>
@@ -19998,7 +20002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>67</v>
       </c>
@@ -20126,7 +20130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>68</v>
       </c>
@@ -20254,7 +20258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="50" t="s">
         <v>142</v>
       </c>
@@ -20382,7 +20386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="50" t="s">
         <v>143</v>
       </c>
@@ -20510,7 +20514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
         <v>144</v>
       </c>
@@ -20638,7 +20642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
         <v>145</v>
       </c>
@@ -20766,7 +20770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
         <v>146</v>
       </c>
@@ -20894,7 +20898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
         <v>147</v>
       </c>
@@ -21022,7 +21026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
         <v>81</v>
       </c>
@@ -21150,7 +21154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
         <v>82</v>
       </c>
@@ -21278,7 +21282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="50" t="s">
         <v>148</v>
       </c>
@@ -21406,7 +21410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="50" t="s">
         <v>150</v>
       </c>
@@ -21534,7 +21538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>83</v>
       </c>
@@ -21662,7 +21666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="50" t="s">
         <v>84</v>
       </c>
@@ -21790,7 +21794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>85</v>
       </c>
@@ -21918,7 +21922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="50" t="s">
         <v>86</v>
       </c>
@@ -22046,7 +22050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>87</v>
       </c>
@@ -22174,7 +22178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
         <v>88</v>
       </c>
@@ -22302,7 +22306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>89</v>
       </c>
@@ -22430,7 +22434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>151</v>
       </c>
@@ -22558,7 +22562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>152</v>
       </c>
@@ -22686,7 +22690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>153</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>154</v>
       </c>
@@ -22942,7 +22946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
         <v>155</v>
       </c>
@@ -23070,7 +23074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="50" t="s">
         <v>156</v>
       </c>
@@ -23198,7 +23202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
         <v>157</v>
       </c>
@@ -23326,7 +23330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
         <v>158</v>
       </c>
@@ -23454,7 +23458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>159</v>
       </c>
@@ -23582,7 +23586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
         <v>160</v>
       </c>
@@ -23710,7 +23714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
         <v>161</v>
       </c>
@@ -23838,7 +23842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
         <v>162</v>
       </c>
@@ -23966,7 +23970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>163</v>
       </c>
@@ -24094,7 +24098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="50" t="s">
         <v>164</v>
       </c>
@@ -24222,7 +24226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="50" t="s">
         <v>165</v>
       </c>
@@ -24350,7 +24354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="50" t="s">
         <v>166</v>
       </c>
@@ -24478,7 +24482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="50" t="s">
         <v>167</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="50" t="s">
         <v>168</v>
       </c>
@@ -24734,7 +24738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="50" t="s">
         <v>169</v>
       </c>
@@ -24862,7 +24866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="50" t="s">
         <v>170</v>
       </c>
@@ -24990,7 +24994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="50" t="s">
         <v>171</v>
       </c>
@@ -25131,17 +25135,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -25149,7 +25153,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>263</v>
       </c>
@@ -25157,7 +25161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>262</v>
       </c>
@@ -25178,17 +25182,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -25196,7 +25200,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>271</v>
       </c>
@@ -25204,7 +25208,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>272</v>
       </c>
@@ -25221,21 +25225,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32CB9AD-BE1A-4B42-ACBF-244C18AEB0E2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>277</v>
       </c>
@@ -25243,7 +25253,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>130</v>
       </c>
@@ -25251,7 +25261,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -25259,7 +25269,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -25267,7 +25277,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -25275,7 +25285,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -25283,7 +25293,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -25291,7 +25301,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -25299,7 +25309,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -25307,7 +25317,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -25315,7 +25325,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -25323,7 +25333,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -25331,7 +25341,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -25339,7 +25349,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -25347,7 +25357,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -25355,7 +25365,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -25363,7 +25373,7 @@
         <v>222724</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -25371,7 +25381,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
@@ -25379,7 +25389,7 @@
         <v>240977</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
@@ -25387,7 +25397,7 @@
         <v>192794</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>137</v>
       </c>
@@ -25406,20 +25416,20 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="J12 D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>274</v>
       </c>
@@ -25427,11 +25437,75 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="62">
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F060B8A-0E87-4C5A-BEE3-38DA9C5B86C6}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="59">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="59">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="59">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="60">
         <v>150000</v>
       </c>
     </row>
@@ -25448,30 +25522,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -25494,7 +25568,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>142</v>
       </c>
@@ -25517,7 +25591,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -25540,7 +25614,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
@@ -25563,7 +25637,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>145</v>
       </c>
@@ -25586,7 +25660,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>146</v>
       </c>
@@ -25609,7 +25683,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>147</v>
       </c>
@@ -25647,30 +25721,30 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -25691,7 +25765,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25711,7 +25785,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25731,7 +25805,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25751,7 +25825,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25771,7 +25845,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25791,7 +25865,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -25825,30 +25899,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -25871,7 +25945,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25891,7 +25965,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25911,7 +25985,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25931,7 +26005,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25951,7 +26025,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25971,7 +26045,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA1116-7D67-4951-AAC0-08F92A26DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA3210-01C8-4401-93F4-5B83C618D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="53" activeTab="61" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -49,36 +49,37 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId34"/>
     <sheet name="PadRates" sheetId="65" r:id="rId35"/>
     <sheet name="FlowbackRates" sheetId="75" r:id="rId36"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId37"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId38"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId39"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId40"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId41"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId42"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId43"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId44"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId45"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId46"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId47"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId48"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId49"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId50"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId51"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId52"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId53"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId54"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId55"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId56"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId57"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId58"/>
-    <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId59"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId60"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId61"/>
-    <sheet name="Economics" sheetId="95" r:id="rId62"/>
+    <sheet name="NodeCapacities" sheetId="96" r:id="rId37"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId38"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId39"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId40"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId41"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId42"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId43"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId44"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId45"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId46"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId47"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId48"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId49"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId50"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId51"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId52"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId53"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId54"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId55"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId56"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId57"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId58"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId59"/>
+    <sheet name="PipelineExpansionCost" sheetId="89" r:id="rId60"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId61"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId62"/>
+    <sheet name="Economics" sheetId="95" r:id="rId63"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="59">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="60">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="274">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -918,6 +919,9 @@
   </si>
   <si>
     <t>CAPEX_lifetime</t>
+  </si>
+  <si>
+    <t>Table of Node Capacity Capacity  [bbl/week]</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2459,7 +2463,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12641,6 +12645,270 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177368FE-B582-4A98-BA14-59D042664C2C}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:U26"/>
   <sheetViews>
@@ -13433,7 +13701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13496,46 +13764,6 @@
         <v>140</v>
       </c>
       <c r="B7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="40">
         <v>0</v>
       </c>
     </row>
@@ -13728,6 +13956,46 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13775,7 +14043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
@@ -15294,7 +15562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -15360,7 +15628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -15400,7 +15668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -15614,7 +15882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -15687,7 +15955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -15735,7 +16003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -15799,7 +16067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -15940,102 +16208,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16229,6 +16401,102 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -16429,7 +16697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -16509,7 +16777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16573,7 +16841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16637,7 +16905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16701,7 +16969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -16749,7 +17017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -16912,7 +17180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -17006,7 +17274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -17114,46 +17382,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="40">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17294,6 +17522,46 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="40">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
@@ -24993,7 +25261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -25040,12 +25308,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A65041-0E95-45F9-821D-6FAB333E55F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0BE6F8-83B8-4F8A-B695-FC9649CF3B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1530" windowWidth="21840" windowHeight="13140" tabRatio="834" firstSheet="56" activeTab="59" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -49,38 +49,39 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId34"/>
     <sheet name="PadRates" sheetId="65" r:id="rId35"/>
     <sheet name="FlowbackRates" sheetId="75" r:id="rId36"/>
-    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId37"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId38"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId39"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId40"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId41"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId42"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId43"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId44"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId45"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId46"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId47"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId48"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId49"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId50"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId51"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId52"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId53"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId54"/>
-    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId55"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId56"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId57"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId58"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId59"/>
-    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId60"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId61"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId62"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId63"/>
-    <sheet name="Economics" sheetId="95" r:id="rId64"/>
+    <sheet name="NodeCapacities" sheetId="99" r:id="rId37"/>
+    <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId38"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId39"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId40"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId41"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId42"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId43"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId44"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId45"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId46"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId47"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId48"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId49"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId50"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId51"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId52"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId53"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId54"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId55"/>
+    <sheet name="TreatmentEfficiency" sheetId="85" r:id="rId56"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId57"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId58"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId59"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId60"/>
+    <sheet name="PipelineExpansionDistance" sheetId="97" r:id="rId61"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="96" r:id="rId62"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId63"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId64"/>
+    <sheet name="Economics" sheetId="95" r:id="rId65"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="59" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="59">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="60">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3441" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="277">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -956,6 +957,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Table of Node Capacity Capacity  [bbl/week]</t>
   </si>
 </sst>
 </file>
@@ -1838,17 +1842,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -1860,7 +1864,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
         <v>7</v>
@@ -1874,7 +1878,7 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1886,7 +1890,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="20" t="s">
         <v>13</v>
@@ -1900,7 +1904,7 @@
       <c r="J5" s="20"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="20" t="s">
         <v>11</v>
@@ -1914,7 +1918,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="20" t="s">
         <v>8</v>
@@ -1928,7 +1932,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
         <v>9</v>
@@ -1942,7 +1946,7 @@
       <c r="J8" s="20"/>
       <c r="K8" s="21"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
         <v>10</v>
@@ -1956,7 +1960,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
         <v>49</v>
@@ -1970,7 +1974,7 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1982,7 +1986,7 @@
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20" t="s">
         <v>14</v>
@@ -1996,7 +2000,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="20" t="s">
         <v>12</v>
@@ -2010,7 +2014,7 @@
       <c r="J13" s="20"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -2022,7 +2026,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="20" t="s">
         <v>15</v>
@@ -2036,7 +2040,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
         <v>16</v>
@@ -2050,7 +2054,7 @@
       <c r="J16" s="20"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="20" t="s">
         <v>17</v>
@@ -2064,7 +2068,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="20" t="s">
         <v>18</v>
@@ -2078,7 +2082,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2090,7 +2094,7 @@
       <c r="J19" s="20"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2102,7 +2106,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="22" t="s">
         <v>19</v>
@@ -2118,7 +2122,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2130,7 +2134,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="23" t="s">
         <v>21</v>
@@ -2146,7 +2150,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="23" t="s">
         <v>22</v>
@@ -2162,7 +2166,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="23" t="s">
         <v>23</v>
@@ -2178,7 +2182,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="23" t="s">
         <v>27</v>
@@ -2194,7 +2198,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
@@ -2210,7 +2214,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="23" t="s">
         <v>31</v>
@@ -2226,7 +2230,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="23" t="s">
         <v>32</v>
@@ -2242,7 +2246,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="23" t="s">
         <v>35</v>
@@ -2258,7 +2262,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="23" t="s">
         <v>37</v>
@@ -2277,7 +2281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="23" t="s">
         <v>40</v>
@@ -2293,7 +2297,7 @@
       <c r="J32" s="20"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="23" t="s">
         <v>39</v>
@@ -2309,7 +2313,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="23" t="s">
         <v>43</v>
@@ -2325,7 +2329,7 @@
       <c r="J34" s="20"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="23" t="s">
         <v>45</v>
@@ -2341,7 +2345,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="23" t="s">
         <v>46</v>
@@ -2357,7 +2361,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2399,30 +2403,30 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2443,7 +2447,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2463,7 +2467,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2483,7 +2487,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2503,7 +2507,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2523,7 +2527,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2543,7 +2547,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2577,30 +2581,30 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
@@ -2623,7 +2627,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>84</v>
       </c>
@@ -2646,7 +2650,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
@@ -2669,7 +2673,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>87</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>89</v>
       </c>
@@ -2761,107 +2765,107 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>171</v>
       </c>
@@ -2881,30 +2885,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>91</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -2950,7 +2954,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>93</v>
       </c>
@@ -2973,7 +2977,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>94</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>95</v>
       </c>
@@ -3019,7 +3023,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3053,30 +3057,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>203</v>
       </c>
@@ -3099,7 +3103,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>204</v>
       </c>
@@ -3122,7 +3126,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>205</v>
       </c>
@@ -3145,7 +3149,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3166,7 +3170,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3187,7 +3191,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3221,30 +3225,30 @@
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>241</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>242</v>
       </c>
@@ -3290,7 +3294,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
@@ -3313,7 +3317,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3334,7 +3338,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3355,7 +3359,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3389,30 +3393,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -3435,7 +3439,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>199</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>200</v>
       </c>
@@ -3481,7 +3485,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3502,7 +3506,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3523,7 +3527,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3557,17 +3561,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -3695,7 +3699,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3731,7 +3735,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -3767,7 +3771,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -3803,7 +3807,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -3841,7 +3845,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -3877,7 +3881,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -3913,7 +3917,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -3949,7 +3953,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -3985,7 +3989,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -4021,7 +4025,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -4057,7 +4061,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -4093,7 +4097,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -4129,7 +4133,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -4165,7 +4169,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="32"/>
     </row>
-    <row r="17" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -4216,17 +4220,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="35"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4390,7 +4394,7 @@
       <c r="AC4" s="33"/>
       <c r="AD4" s="35"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="AC5" s="33"/>
       <c r="AD5" s="35"/>
     </row>
-    <row r="6" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4477,17 +4481,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -4513,7 +4517,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -4522,7 +4526,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -4531,7 +4535,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -4554,17 +4558,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -4692,7 +4696,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="32"/>
     </row>
-    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -4732,7 +4736,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="32"/>
     </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -4770,7 +4774,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="32"/>
     </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -4808,7 +4812,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="32"/>
     </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -4846,7 +4850,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="32"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="32"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -4924,7 +4928,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="32"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -4962,7 +4966,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="32"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -5002,7 +5006,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="32"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -5040,7 +5044,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="32"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -5078,7 +5082,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="32"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -5116,7 +5120,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="32"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -5154,7 +5158,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="32"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -5270,7 +5274,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="32"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -5306,7 +5310,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="32"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -5342,7 +5346,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="32"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -5380,7 +5384,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="32"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -5456,7 +5460,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="32"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -5494,7 +5498,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="32"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -5532,7 +5536,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="32"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -5570,7 +5574,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="32"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -5608,7 +5612,7 @@
       <c r="AC27" s="10"/>
       <c r="AD27" s="32"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -5648,7 +5652,7 @@
       </c>
       <c r="AD28" s="32"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -5684,7 +5688,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="32"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -5720,7 +5724,7 @@
       <c r="AC30" s="10"/>
       <c r="AD30" s="32"/>
     </row>
-    <row r="31" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -5775,61 +5779,61 @@
       <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C3" s="41"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="42"/>
       <c r="F21" s="42"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="43"/>
       <c r="M31" s="27"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="43"/>
     </row>
   </sheetData>
@@ -5846,17 +5850,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -5882,7 +5886,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -5891,7 +5895,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -5900,7 +5904,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -5909,7 +5913,7 @@
       <c r="D6" s="46"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -5918,7 +5922,7 @@
       <c r="D7" s="46"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -5927,7 +5931,7 @@
       <c r="D8" s="46"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -5936,7 +5940,7 @@
       <c r="D9" s="46"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -5945,7 +5949,7 @@
       <c r="D10" s="46"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -5954,7 +5958,7 @@
       <c r="D11" s="46"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -5963,7 +5967,7 @@
       <c r="D12" s="46"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -5972,7 +5976,7 @@
       <c r="D13" s="46"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -5981,7 +5985,7 @@
       <c r="D14" s="46"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -5990,7 +5994,7 @@
       <c r="D15" s="46"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -5999,7 +6003,7 @@
       <c r="D16" s="46"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -6008,7 +6012,7 @@
       <c r="D17" s="46"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -6017,7 +6021,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -6026,7 +6030,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -6035,7 +6039,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -6044,7 +6048,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6053,7 +6057,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -6062,7 +6066,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -6071,7 +6075,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -6080,7 +6084,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -6098,7 +6102,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -6107,7 +6111,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -6116,7 +6120,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="32"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -6125,7 +6129,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6148,17 +6152,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -6190,7 +6194,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
@@ -6200,7 +6204,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
@@ -6210,7 +6214,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
@@ -6222,7 +6226,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="32"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -6232,7 +6236,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="32"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
@@ -6242,7 +6246,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="32"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
@@ -6252,7 +6256,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="32"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6262,7 +6266,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
@@ -6272,7 +6276,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
@@ -6282,7 +6286,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
@@ -6292,7 +6296,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="32"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
@@ -6302,7 +6306,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="32"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
@@ -6314,7 +6318,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="32"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
@@ -6324,7 +6328,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
@@ -6334,7 +6338,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
@@ -6344,7 +6348,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
@@ -6356,7 +6360,7 @@
       </c>
       <c r="F19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
@@ -6368,7 +6372,7 @@
       </c>
       <c r="F20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
@@ -6378,7 +6382,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6388,7 +6392,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -6398,7 +6402,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -6410,7 +6414,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="32"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
@@ -6420,7 +6424,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="32"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
@@ -6430,7 +6434,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="32"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
@@ -6440,7 +6444,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="32"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
@@ -6450,7 +6454,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="32"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
@@ -6460,7 +6464,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="32"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6497,17 +6501,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6518,56 +6522,56 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="32"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="32"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="32"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="32"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="32"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="32"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
@@ -6576,84 +6580,84 @@
       </c>
       <c r="C10" s="32"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="32"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="32"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="32"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="32"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="32"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="32"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="32"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="32"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -6662,63 +6666,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="32"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="32"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="32"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="32"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="32"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="32"/>
     </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
@@ -6740,17 +6744,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>256</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>154</v>
       </c>
@@ -6780,17 +6784,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
@@ -6820,17 +6824,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -6847,7 +6851,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -6858,7 +6862,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -6869,7 +6873,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -6880,7 +6884,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -6891,7 +6895,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -6902,7 +6906,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -6913,7 +6917,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -6950,17 +6954,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -6977,7 +6981,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -6990,7 +6994,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -7017,17 +7021,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -7038,14 +7042,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="32"/>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -7066,17 +7070,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -7102,7 +7106,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7111,7 +7115,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7120,7 +7124,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7129,7 +7133,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7138,7 +7142,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7147,7 +7151,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7156,7 +7160,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7165,7 +7169,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7174,7 +7178,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7183,7 +7187,7 @@
       <c r="D12" s="10"/>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7192,7 +7196,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7201,7 +7205,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="32"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7210,7 +7214,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="32"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7219,7 +7223,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7243,17 +7247,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
@@ -7281,7 +7285,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
@@ -7292,7 +7296,7 @@
       <c r="D4" s="10"/>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>142</v>
       </c>
@@ -7303,7 +7307,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>143</v>
       </c>
@@ -7314,7 +7318,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="32"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>144</v>
       </c>
@@ -7325,7 +7329,7 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>145</v>
       </c>
@@ -7336,7 +7340,7 @@
       </c>
       <c r="E8" s="32"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>147</v>
       </c>
@@ -7370,24 +7374,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>130</v>
       </c>
@@ -7408,7 +7412,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7429,67 +7433,67 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -7509,17 +7513,17 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -7539,7 +7543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -7559,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -7619,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -7639,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -7659,7 +7663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -7679,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -7719,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -7819,7 +7823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -7853,17 +7857,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -7883,7 +7887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -7977,17 +7981,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8004,7 +8008,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8013,7 +8017,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="35"/>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -8022,7 +8026,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -8031,7 +8035,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="35"/>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -8054,17 +8058,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8072,7 +8076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -8092,17 +8096,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -8263,7 +8267,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -8340,7 +8344,7 @@
       <c r="AZ3" s="44"/>
       <c r="BA3" s="38"/>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -8425,7 +8429,7 @@
       <c r="AZ4" s="44"/>
       <c r="BA4" s="38"/>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -8498,7 +8502,7 @@
       <c r="AZ5" s="44"/>
       <c r="BA5" s="38"/>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -8589,47 +8593,47 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -8649,21 +8653,21 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>249</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -9037,7 +9041,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -9250,7 +9254,7 @@
         <v>22826.547097429568</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -9463,7 +9467,7 @@
         <v>20853.895411663008</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -9676,7 +9680,7 @@
         <v>12936.237157458605</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -9889,7 +9893,7 @@
         <v>10093.208985005042</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>25030.845039782169</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>21394.248548185435</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -10528,7 +10532,7 @@
         <v>19620.846059435706</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -10741,7 +10745,7 @@
         <v>15265.37024791327</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>19056.740567787925</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -11167,7 +11171,7 @@
         <v>10459.139487125793</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>11226.398478579069</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>9948.0491512241751</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -11806,7 +11810,7 @@
         <v>13401.937357783543</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -12019,12 +12023,12 @@
         <v>8411.007487504201</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -12044,21 +12048,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
-    <col min="2" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="9"/>
+    <col min="2" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -12219,7 +12223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12396,7 +12400,7 @@
         <v>38495.240630664819</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -12501,7 +12505,7 @@
         <v>63660.095793436725</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -12651,7 +12655,7 @@
         <v>56817.904350212186</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -12708,42 +12712,42 @@
       <c r="AZ6" s="39"/>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -12756,6 +12760,270 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91B7BFB-6AF8-41EB-AD21-C24462ED1F2A}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="38">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="40">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:U26"/>
   <sheetViews>
@@ -12763,12 +13031,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
@@ -12793,7 +13061,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -12858,7 +13126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -12885,7 +13153,7 @@
       <c r="T3" s="37"/>
       <c r="U3" s="38"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>84</v>
       </c>
@@ -12916,7 +13184,7 @@
       <c r="T4" s="37"/>
       <c r="U4" s="38"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>85</v>
       </c>
@@ -12947,7 +13215,7 @@
       <c r="T5" s="37"/>
       <c r="U5" s="38"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>83</v>
       </c>
@@ -12976,7 +13244,7 @@
       <c r="T6" s="37"/>
       <c r="U6" s="38"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
@@ -13005,7 +13273,7 @@
       <c r="T7" s="37"/>
       <c r="U7" s="38"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>3</v>
       </c>
@@ -13032,7 +13300,7 @@
       <c r="T8" s="37"/>
       <c r="U8" s="38"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
@@ -13063,7 +13331,7 @@
       <c r="T9" s="37"/>
       <c r="U9" s="38"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>88</v>
       </c>
@@ -13092,7 +13360,7 @@
       <c r="T10" s="37"/>
       <c r="U10" s="38"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>87</v>
       </c>
@@ -13121,7 +13389,7 @@
       <c r="T11" s="37"/>
       <c r="U11" s="38"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>4</v>
       </c>
@@ -13148,7 +13416,7 @@
       <c r="T12" s="37"/>
       <c r="U12" s="38"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>124</v>
       </c>
@@ -13175,7 +13443,7 @@
       <c r="T13" s="44"/>
       <c r="U13" s="38"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>125</v>
       </c>
@@ -13202,7 +13470,7 @@
       <c r="T14" s="44"/>
       <c r="U14" s="38"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>126</v>
       </c>
@@ -13229,7 +13497,7 @@
       </c>
       <c r="U15" s="38"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>127</v>
       </c>
@@ -13256,7 +13524,7 @@
       <c r="T16" s="44"/>
       <c r="U16" s="38"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>128</v>
       </c>
@@ -13283,7 +13551,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="38"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>139</v>
       </c>
@@ -13310,7 +13578,7 @@
       </c>
       <c r="U18" s="38"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>157</v>
       </c>
@@ -13339,7 +13607,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="38"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>158</v>
       </c>
@@ -13366,7 +13634,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="38"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>171</v>
       </c>
@@ -13395,7 +13663,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="38"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
@@ -13426,7 +13694,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="38"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
@@ -13455,7 +13723,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="38"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
@@ -13484,7 +13752,7 @@
       <c r="T24" s="44"/>
       <c r="U24" s="38"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>161</v>
       </c>
@@ -13513,7 +13781,7 @@
       </c>
       <c r="U25" s="38"/>
     </row>
-    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>160</v>
       </c>
@@ -13548,7 +13816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -13556,17 +13824,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -13574,7 +13842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -13582,7 +13850,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -13590,7 +13858,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -13598,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -13606,51 +13874,11 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="40">
         <v>0</v>
       </c>
     </row>
@@ -13668,24 +13896,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="1"/>
-    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.33203125" style="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -13706,7 +13934,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -13727,7 +13955,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -13748,7 +13976,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -13769,7 +13997,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -13790,47 +14018,47 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -13843,6 +14071,46 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -13850,17 +14118,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -13868,7 +14136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -13876,7 +14144,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -13890,7 +14158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
@@ -13898,17 +14166,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>253</v>
       </c>
@@ -14069,7 +14337,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>67</v>
       </c>
@@ -14230,7 +14498,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>68</v>
       </c>
@@ -14391,7 +14659,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
@@ -14552,7 +14820,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>143</v>
       </c>
@@ -14713,7 +14981,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>144</v>
       </c>
@@ -14874,7 +15142,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>145</v>
       </c>
@@ -15035,7 +15303,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
@@ -15196,7 +15464,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>147</v>
       </c>
@@ -15357,47 +15625,47 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -15409,7 +15677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -15417,19 +15685,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15437,7 +15705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15445,7 +15713,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15453,7 +15721,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15461,7 +15729,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15475,7 +15743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -15483,17 +15751,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15501,7 +15769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -15515,7 +15783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -15523,17 +15791,17 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15553,7 +15821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -15573,7 +15841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -15593,7 +15861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -15613,7 +15881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -15633,7 +15901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>135</v>
       </c>
@@ -15653,7 +15921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>136</v>
       </c>
@@ -15673,7 +15941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>137</v>
       </c>
@@ -15693,34 +15961,34 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
   </sheetData>
@@ -15729,7 +15997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -15737,17 +16005,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -15755,7 +16023,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -15763,7 +16031,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -15771,7 +16039,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -15779,7 +16047,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -15787,7 +16055,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -15802,7 +16070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -15810,17 +16078,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -15828,7 +16096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -15836,7 +16104,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -15850,7 +16118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -15858,17 +16126,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>251</v>
       </c>
@@ -15876,7 +16144,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
@@ -15884,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
@@ -15892,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
@@ -15900,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>137</v>
       </c>
@@ -15914,7 +16182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -15922,19 +16190,19 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="7" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>248</v>
       </c>
@@ -15957,7 +16225,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -15970,7 +16238,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
@@ -15983,7 +16251,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>136</v>
       </c>
@@ -15996,7 +16264,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
@@ -16009,7 +16277,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -16020,7 +16288,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -16031,7 +16299,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
@@ -16042,7 +16310,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
@@ -16055,102 +16323,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="32">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="32">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1.25</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16164,30 +16336,30 @@
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>135</v>
       </c>
@@ -16210,7 +16382,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
@@ -16233,7 +16405,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>137</v>
       </c>
@@ -16256,7 +16428,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16276,7 +16448,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -16296,7 +16468,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -16316,7 +16488,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -16344,6 +16516,102 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="32">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="32">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -16351,17 +16619,17 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -16369,7 +16637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -16377,7 +16645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -16385,7 +16653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -16393,7 +16661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -16401,7 +16669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -16409,7 +16677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -16417,7 +16685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -16425,7 +16693,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -16433,7 +16701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -16441,7 +16709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -16449,7 +16717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -16457,7 +16725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -16465,7 +16733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -16473,7 +16741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -16481,7 +16749,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>134</v>
       </c>
@@ -16489,7 +16757,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -16497,7 +16765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
@@ -16505,7 +16773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
@@ -16513,7 +16781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>137</v>
       </c>
@@ -16521,7 +16789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>67</v>
       </c>
@@ -16529,7 +16797,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>68</v>
       </c>
@@ -16544,7 +16812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -16552,17 +16820,17 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>257</v>
       </c>
@@ -16570,7 +16838,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -16578,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>91</v>
       </c>
@@ -16586,7 +16854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
@@ -16594,7 +16862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>93</v>
       </c>
@@ -16602,7 +16870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>94</v>
       </c>
@@ -16610,7 +16878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>95</v>
       </c>
@@ -16624,7 +16892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16632,17 +16900,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>259</v>
       </c>
@@ -16650,7 +16918,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>100</v>
       </c>
@@ -16658,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>198</v>
       </c>
@@ -16666,7 +16934,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>199</v>
       </c>
@@ -16674,7 +16942,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>200</v>
       </c>
@@ -16688,7 +16956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16696,17 +16964,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>258</v>
       </c>
@@ -16714,7 +16982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>97</v>
       </c>
@@ -16722,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>203</v>
       </c>
@@ -16730,7 +16998,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>204</v>
       </c>
@@ -16738,7 +17006,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>205</v>
       </c>
@@ -16752,7 +17020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -16760,17 +17028,17 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>260</v>
       </c>
@@ -16778,7 +17046,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>240</v>
       </c>
@@ -16786,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>241</v>
       </c>
@@ -16794,7 +17062,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>242</v>
       </c>
@@ -16802,7 +17070,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>243</v>
       </c>
@@ -16816,7 +17084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B45C9D-7A15-425D-8487-B88B27280274}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -16824,17 +17092,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -16842,7 +17110,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -16850,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -16864,7 +17132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -16872,17 +17140,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>252</v>
       </c>
@@ -16899,7 +17167,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>141</v>
       </c>
@@ -16916,7 +17184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>51</v>
       </c>
@@ -16933,7 +17201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>138</v>
       </c>
@@ -16950,7 +17218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>139</v>
       </c>
@@ -16967,7 +17235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>140</v>
       </c>
@@ -16984,39 +17252,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
@@ -17027,7 +17295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -17035,17 +17303,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>254</v>
       </c>
@@ -17062,7 +17330,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>81</v>
       </c>
@@ -17079,39 +17347,39 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
@@ -17121,7 +17389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -17129,17 +17397,17 @@
       <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -17156,7 +17424,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>82</v>
       </c>
@@ -17173,7 +17441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>148</v>
       </c>
@@ -17190,86 +17458,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B3" s="40">
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -17281,23 +17508,23 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.33203125" style="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.28515625" style="1"/>
+    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>141</v>
       </c>
@@ -17318,7 +17545,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -17339,7 +17566,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>138</v>
       </c>
@@ -17360,7 +17587,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>139</v>
       </c>
@@ -17381,7 +17608,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>140</v>
       </c>
@@ -17410,23 +17637,64 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="40">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547EF3E-C271-4F2C-A3E7-66F3B3003AB1}">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>248</v>
       </c>
@@ -17554,7 +17822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>130</v>
       </c>
@@ -17682,7 +17950,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -17810,7 +18078,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
@@ -17938,7 +18206,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>122</v>
       </c>
@@ -18066,7 +18334,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
@@ -18194,7 +18462,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>124</v>
       </c>
@@ -18322,7 +18590,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>125</v>
       </c>
@@ -18450,7 +18718,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>126</v>
       </c>
@@ -18578,7 +18846,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>127</v>
       </c>
@@ -18706,7 +18974,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>128</v>
       </c>
@@ -18834,7 +19102,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>129</v>
       </c>
@@ -18962,7 +19230,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
@@ -19090,7 +19358,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>132</v>
       </c>
@@ -19218,7 +19486,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>133</v>
       </c>
@@ -19346,7 +19614,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>134</v>
       </c>
@@ -19474,7 +19742,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
@@ -19602,7 +19870,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>135</v>
       </c>
@@ -19730,7 +19998,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>136</v>
       </c>
@@ -19858,7 +20126,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>137</v>
       </c>
@@ -19986,7 +20254,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>150</v>
       </c>
@@ -20114,7 +20382,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>83</v>
       </c>
@@ -20242,7 +20510,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>84</v>
       </c>
@@ -20370,7 +20638,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>85</v>
       </c>
@@ -20498,7 +20766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>86</v>
       </c>
@@ -20626,7 +20894,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>87</v>
       </c>
@@ -20754,7 +21022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>88</v>
       </c>
@@ -20882,7 +21150,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>89</v>
       </c>
@@ -21010,7 +21278,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>151</v>
       </c>
@@ -21138,7 +21406,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>152</v>
       </c>
@@ -21266,7 +21534,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>153</v>
       </c>
@@ -21394,7 +21662,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>154</v>
       </c>
@@ -21522,7 +21790,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>155</v>
       </c>
@@ -21650,7 +21918,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>156</v>
       </c>
@@ -21778,7 +22046,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>157</v>
       </c>
@@ -21906,7 +22174,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>158</v>
       </c>
@@ -22034,7 +22302,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>159</v>
       </c>
@@ -22162,7 +22430,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>160</v>
       </c>
@@ -22290,7 +22558,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>161</v>
       </c>
@@ -22418,7 +22686,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>162</v>
       </c>
@@ -22546,7 +22814,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>163</v>
       </c>
@@ -22674,7 +22942,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>164</v>
       </c>
@@ -22802,7 +23070,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>165</v>
       </c>
@@ -22930,7 +23198,7 @@
         <v>22.094999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>166</v>
       </c>
@@ -23058,7 +23326,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>167</v>
       </c>
@@ -23186,7 +23454,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>168</v>
       </c>
@@ -23314,7 +23582,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>169</v>
       </c>
@@ -23442,7 +23710,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>170</v>
       </c>
@@ -23570,7 +23838,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>171</v>
       </c>
@@ -23698,7 +23966,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
@@ -23826,7 +24094,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>67</v>
       </c>
@@ -23954,7 +24222,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>68</v>
       </c>
@@ -24082,7 +24350,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>142</v>
       </c>
@@ -24210,7 +24478,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>143</v>
       </c>
@@ -24338,7 +24606,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>144</v>
       </c>
@@ -24466,7 +24734,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>145</v>
       </c>
@@ -24594,7 +24862,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>146</v>
       </c>
@@ -24722,7 +24990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>147</v>
       </c>
@@ -24850,7 +25118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>82</v>
       </c>
@@ -24978,7 +25246,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="30" t="s">
         <v>148</v>
       </c>
@@ -25110,7 +25378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26FB909-6686-43AA-8905-776C584646CC}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -25118,17 +25386,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>257</v>
       </c>
@@ -25136,7 +25404,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>90</v>
       </c>
@@ -25144,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>91</v>
       </c>
@@ -25152,7 +25420,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>92</v>
       </c>
@@ -25160,7 +25428,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>93</v>
       </c>
@@ -25168,7 +25436,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>94</v>
       </c>
@@ -25176,7 +25444,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>95</v>
       </c>
@@ -25190,7 +25458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740CECF9-BE1E-49F8-A08D-BC4E1D042422}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -25198,9 +25466,9 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>274</v>
       </c>
@@ -25208,7 +25476,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>248</v>
       </c>
@@ -25234,7 +25502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>152</v>
       </c>
@@ -25260,7 +25528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>154</v>
       </c>
@@ -25286,7 +25554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>151</v>
       </c>
@@ -25312,7 +25580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>153</v>
       </c>
@@ -25343,7 +25611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -25351,17 +25619,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -25369,7 +25637,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>263</v>
       </c>
@@ -25377,7 +25645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>262</v>
       </c>
@@ -25390,7 +25658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -25398,17 +25666,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>269</v>
       </c>
@@ -25416,7 +25684,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>271</v>
       </c>
@@ -25424,7 +25692,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>272</v>
       </c>
@@ -25445,30 +25713,30 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>68</v>
       </c>
@@ -25491,7 +25759,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>142</v>
       </c>
@@ -25514,7 +25782,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -25537,7 +25805,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
@@ -25560,7 +25828,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>145</v>
       </c>
@@ -25583,7 +25851,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>146</v>
       </c>
@@ -25606,7 +25874,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>147</v>
       </c>
@@ -25644,30 +25912,30 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -25688,7 +25956,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25708,7 +25976,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25728,7 +25996,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25748,7 +26016,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25768,7 +26036,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25788,7 +26056,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -25822,30 +26090,30 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.33203125" style="1"/>
-    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.33203125" style="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>148</v>
       </c>
@@ -25868,7 +26136,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -25888,7 +26156,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25908,7 +26176,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -25928,7 +26196,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -25948,7 +26216,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -25968,7 +26236,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NienkeW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PARETO - dev\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E136156-4F56-49BB-BBB8-422B549DE4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BFF46E-F655-4AC7-958E-AFD75318A040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="14" activeTab="35" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -980,7 +980,7 @@
     <t>Initial Water Quality at Completiond Pad Storage (mg/L)</t>
   </si>
   <si>
-    <t>Table of Node Capacity Capacity  [bbl/week]</t>
+    <t>Table of Node Capacity Capacity  [bbl/week] * absence of node or empty cell signifies no max capacity</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12178,7 +12178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27E83FA-0F3B-443C-8B3E-ADC37406AEAD}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12204,233 +12206,175 @@
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B6" s="38"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B8" s="38"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B10" s="38"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B12" s="38"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B13" s="38"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B15" s="38"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B16" s="38"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B17" s="38"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B18" s="38"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B23" s="38"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B24" s="38"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B25" s="38"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B28" s="38"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="38">
-        <v>1000000</v>
-      </c>
+      <c r="B30" s="38"/>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B31" s="40">
-        <v>1000000</v>
-      </c>
+      <c r="B31" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA112DB5-71AC-45D2-9FE0-71561C65E612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0A007-68A5-4F73-B6AA-FE5367B0D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -2359,7 +2359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E5E074-61D5-4D82-B0DB-255C2595EBED}">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7941,9 +7943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB10CD-C2F5-4A5B-9D35-9BA20FBC12B6}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA0A007-68A5-4F73-B6AA-FE5367B0D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07327253-9B73-474C-AA9A-D5C81C57AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="834" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="16680" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -48,9 +48,9 @@
     <sheet name="CCT" sheetId="74" r:id="rId33"/>
     <sheet name="CST" sheetId="64" r:id="rId34"/>
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId35"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId36"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId37"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId38"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId36"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId37"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId38"/>
     <sheet name="InitialPipelineCapacity" sheetId="66" r:id="rId39"/>
     <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId40"/>
     <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId41"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="293">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -885,125 +885,9 @@
     <t>TDS</t>
   </si>
   <si>
-    <t>PADS</t>
-  </si>
-  <si>
     <t>Pads</t>
   </si>
   <si>
-    <t>Table of Trucking Hourly Cost  [currency/hour]</t>
-  </si>
-  <si>
-    <t>Table of Disposal Operational Cost  [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Treatment Operational Cost  [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Reuse Operational Cost  [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Pipeline Operational Cost between Sites [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Freshwater Sourcing Cost  [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Storage Capacity Expansion Cost [currency/volume]</t>
-  </si>
-  <si>
-    <t>Table of Node Capacity Capacity  [volume/time] * absence of node or empty cell signifies no max capacity</t>
-  </si>
-  <si>
-    <t>Table of Completions Water Demand for Completions Sites over Weeks [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Production Rate Forecasts by Pads [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Flowback Rate Forecasts by Pads [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Initial Pipeline Capacity between Sites [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Initial Disposal Capacity  [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Initial Treatment Capacity  [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Freshwater Sourcing Availability [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Pad Offloading Capacity  [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Disposal Capacity Expansion Increments [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Treatment Capacity Expansion Increments [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Pipeline Capacity Expansion Increments [volume/time]</t>
-  </si>
-  <si>
-    <t>Table of Initial Storage Capacity  [volume]</t>
-  </si>
-  <si>
-    <t>Table of Completions Pad Storage Capacity [volume]</t>
-  </si>
-  <si>
-    <t>Table of Storage Capacity Expansion Increments [volume]</t>
-  </si>
-  <si>
-    <t>Table of Pipeline Diameters [diameter]</t>
-  </si>
-  <si>
-    <t>Table of Disposal Capacity Expansion Cost [currency/(volume/time)]</t>
-  </si>
-  <si>
-    <t>Table of Treatment Capacity Expansion Cost [currency/(volume/time)]</t>
-  </si>
-  <si>
-    <r>
-      <t>Pipeline Expansion Cost [currency/(diameter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>distance)]</t>
-    </r>
-  </si>
-  <si>
-    <t>Table of Pipeline Expansion Distances [distance]</t>
-  </si>
-  <si>
-    <t>Table of Pipeline Capacity Expansion Costs [currency/(volume/time)]</t>
-  </si>
-  <si>
-    <t>Water Quality at Production Pads [concentration]</t>
-  </si>
-  <si>
-    <t>Initial Water Quality at Storage [concentration]</t>
-  </si>
-  <si>
-    <t>Initial Water Quality at Completiond Pad Storage [concentration]</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
@@ -1052,12 +936,6 @@
     <t>cm</t>
   </si>
   <si>
-    <t>oil_bbl</t>
-  </si>
-  <si>
-    <t>koil_bbl</t>
-  </si>
-  <si>
     <t>foot</t>
   </si>
   <si>
@@ -1076,9 +954,6 @@
     <t>42 gallons</t>
   </si>
   <si>
-    <t>1000 oil_bbl</t>
-  </si>
-  <si>
     <t>1000 m</t>
   </si>
   <si>
@@ -1094,9 +969,6 @@
     <t>30.44 days</t>
   </si>
   <si>
-    <t>Notes on Units</t>
-  </si>
-  <si>
     <t>ppm</t>
   </si>
   <si>
@@ -1104,6 +976,42 @@
   </si>
   <si>
     <t>kg/liter</t>
+  </si>
+  <si>
+    <t>bbl</t>
+  </si>
+  <si>
+    <t>kbbl</t>
+  </si>
+  <si>
+    <t>1000 bbl</t>
+  </si>
+  <si>
+    <t>Unit Description</t>
+  </si>
+  <si>
+    <t>Unit Relationships</t>
+  </si>
+  <si>
+    <t>Distance units are used for defining lengths of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>This unit applies to diameter of pipelines and pipeline expansion costs</t>
+  </si>
+  <si>
+    <t>Concentration unit defines water quality (e.g., TDS concentration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume units are used to represent water flows (e.g. bbl/day), flow capacities, storage capacity, costs etc. </t>
+  </si>
+  <si>
+    <t>Currency unit defines costs</t>
+  </si>
+  <si>
+    <t>Time units refers to input data relative to time (e.g., water flows in bbl/day)</t>
+  </si>
+  <si>
+    <t>The decision period is the amount of time in a single decision period or discretization (e.g., T01 is 1 week)</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1023,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,12 +1088,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1839,7 +1741,6 @@
     <xf numFmtId="3" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1923,7 +1824,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4090,7 +3994,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4257,13 +4161,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4922,7 +4825,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5183,7 +5087,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -5331,7 +5236,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6552,7 +6458,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6854,7 +6761,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7203,7 +7111,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7446,7 +7355,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7486,7 +7396,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7526,7 +7437,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.77734375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7656,7 +7568,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7723,7 +7636,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7772,7 +7686,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7941,302 +7856,327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB10CD-C2F5-4A5B-9D35-9BA20FBC12B6}">
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" style="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="47" width="9.33203125" style="1"/>
-    <col min="48" max="48" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="98" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="D2" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="92"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="84"/>
+      <c r="I3" s="80" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" s="81" t="s">
-        <v>306</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="81" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="83"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="82"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="D5" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="83"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="84"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="84"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="84"/>
-      <c r="AS8" s="33" t="s">
-        <v>283</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="83"/>
       <c r="AT8" s="33" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="AU8" s="33" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="AV8" s="33" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="AW8" s="33" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="AX8" s="33" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AY8" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+      <c r="AZ8" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>304</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>310</v>
-      </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="I9" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>299</v>
+        <v>258</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="95" t="s">
+        <v>277</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AS10" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="AT12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>295</v>
+        <v>258</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="AU12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{0366540F-07AE-4F25-B907-A754D6EED801}">
-      <formula1>$AS$9:$AS$10</formula1>
+      <formula1>$AT$9:$AT$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{C79D4C95-A2FA-4887-96DC-7C746F015FE0}">
-      <formula1>$AT$9:$AT$12</formula1>
+      <formula1>$AU$9:$AU$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{31C57A55-793D-4314-90EE-3947816FAD7C}">
-      <formula1>$AV$9:$AV$10</formula1>
+      <formula1>$AW$9:$AW$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{2875C8E3-1AA6-4283-BA6A-B0ED7E3E7451}">
-      <formula1>$AW$9:$AW$10</formula1>
+      <formula1>$AX$9:$AX$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8" xr:uid="{A2352212-D4AC-4060-A6D0-EDF0F167C76E}">
-      <formula1>$AX$9:$AX$10</formula1>
+      <formula1>$AY$9:$AY$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{6A0898C7-A0E4-4D50-B77F-749952BD9BF8}">
-      <formula1>$AY$9:$AY$12</formula1>
+      <formula1>$AZ$9:$AZ$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{7798E450-1C40-4081-9434-3CDB06544C0F}">
-      <formula1>$AU$9:$AU$10</formula1>
+      <formula1>$AV$9:$AV$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8254,7 +8194,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8383,7 +8324,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8727,7 +8669,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8851,7 +8794,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8928,7 +8872,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -8960,18 +8905,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>260</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -9832,222 +9781,16 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.33203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="38"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="38"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="38"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="38"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="38"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="38"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="38"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="38"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="38"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="38"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="38"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="38"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="38"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="38"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="38"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="38"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="38"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="38"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="38"/>
-    </row>
-    <row r="31" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="40"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="1" max="1" width="15.77734375" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
@@ -10055,8 +9798,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>261</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13416,8 +13160,8 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -13429,17 +13173,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="9"/>
+    <col min="1" max="1" width="17.109375" style="9" customWidth="1"/>
     <col min="2" max="13" width="9.33203125" style="1"/>
     <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
@@ -13447,8 +13191,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>262</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13793,11 +13538,11 @@
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
@@ -13898,11 +13643,11 @@
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="45"/>
@@ -14149,12 +13894,221 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
+        <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="38"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="38"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="38"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="38"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="38"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="38"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="38"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="38"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="38"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="38"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="38"/>
+    </row>
+    <row r="31" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE628BF-A05C-42C8-8EC7-63FF3B624ADC}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U26"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14163,8 +14117,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>263</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Pipeline Capacity between Sites  [bbl/day]</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15959,18 +15914,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>264</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Disposal Capacity  [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16017,7 +15972,7 @@
       <c r="A7" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="62">
         <v>0</v>
       </c>
     </row>
@@ -16035,12 +15990,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>271</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16069,18 +16026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>265</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -16103,7 +16060,7 @@
       <c r="A4" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="62">
         <v>7142.8571428571431</v>
       </c>
     </row>
@@ -16117,18 +16074,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <dimension ref="A1:BA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>266</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17638,19 +17595,20 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>272</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17703,18 +17661,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>267</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pad Offloading Capacity  [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -17744,7 +17702,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17961,12 +17919,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>253</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -18028,18 +17988,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>254</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -18082,12 +18042,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>255</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -18323,7 +18285,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18334,8 +18296,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>256</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -18468,18 +18431,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>257</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -18564,9 +18527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18574,8 +18535,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>252</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -18765,16 +18727,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>274</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -18843,18 +18809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>268</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Disposal Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -18893,7 +18859,7 @@
       <c r="A6" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>50000</v>
       </c>
     </row>
@@ -18907,18 +18873,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="18.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>273</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -18977,12 +18943,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>269</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments  [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Treatment Capacity Expansion Increments  [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -19021,7 +18989,7 @@
       <c r="A6" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>35714.285714285717</v>
       </c>
     </row>
@@ -19036,12 +19004,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -19089,12 +19058,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>275</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -19247,17 +19218,19 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>258</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -19533,12 +19506,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>276</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -19649,8 +19624,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>277</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -19683,11 +19659,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>278</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -21813,31 +21791,31 @@
       <c r="Y18" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="Z18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC18" s="66" t="s">
+      <c r="Z18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC18" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AD18" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AE18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH18" s="66" t="s">
+      <c r="AE18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH18" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AI18" s="35" t="s">
@@ -21852,13 +21830,13 @@
       <c r="AL18" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AM18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN18" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO18" s="66" t="s">
+      <c r="AM18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN18" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO18" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AP18" s="35" t="s">
@@ -21941,31 +21919,31 @@
       <c r="Y19" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="Z19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC19" s="66" t="s">
+      <c r="Z19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC19" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AD19" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AE19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH19" s="66" t="s">
+      <c r="AE19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH19" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AI19" s="35" t="s">
@@ -21980,13 +21958,13 @@
       <c r="AL19" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AM19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN19" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO19" s="66" t="s">
+      <c r="AM19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN19" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO19" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AP19" s="35" t="s">
@@ -22069,31 +22047,31 @@
       <c r="Y20" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="Z20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AA20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC20" s="66" t="s">
+      <c r="Z20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC20" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AD20" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AE20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH20" s="66" t="s">
+      <c r="AE20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH20" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AI20" s="35" t="s">
@@ -22108,13 +22086,13 @@
       <c r="AL20" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="AM20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN20" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="AO20" s="66" t="s">
+      <c r="AM20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO20" s="65" t="s">
         <v>248</v>
       </c>
       <c r="AP20" s="35" t="s">
@@ -22253,10 +22231,10 @@
       <c r="A22" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="74">
+      <c r="B22" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="73">
         <v>40.752409775985356</v>
       </c>
       <c r="D22" s="45" t="s">
@@ -22340,7 +22318,7 @@
       <c r="AD22" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="73">
         <v>41.716999999999999</v>
       </c>
       <c r="AF22" s="45" t="s">
@@ -22381,10 +22359,10 @@
       <c r="A23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="73">
         <v>40.752409775985356</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>248</v>
       </c>
       <c r="D23" s="45">
@@ -22768,7 +22746,7 @@
       <c r="B26" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="73">
         <v>18.141999999999999</v>
       </c>
       <c r="D26" s="45" t="s">
@@ -27378,17 +27356,19 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.21875" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -27458,14 +27438,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>279</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
+        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -27501,25 +27482,25 @@
       <c r="A3" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="68">
+      <c r="C3" s="67">
         <v>30</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="67">
         <v>30</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="67">
         <v>30</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="67">
         <v>30</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="67">
         <v>30</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="68">
         <v>30</v>
       </c>
     </row>
@@ -27527,25 +27508,25 @@
       <c r="A4" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="67">
         <v>30</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="67">
         <v>30</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="67">
         <v>30</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="67">
         <v>30</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="67">
         <v>30</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <v>30</v>
       </c>
     </row>
@@ -27553,51 +27534,51 @@
       <c r="A5" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="67">
         <v>30</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="67">
         <v>30</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="67">
         <v>30</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="67">
         <v>30</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="67">
         <v>30</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="68">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>30</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>30</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>30</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="71">
         <v>30</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <v>30</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="72">
         <v>30</v>
       </c>
     </row>
@@ -27612,7 +27593,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27658,7 +27639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27703,7 +27686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -27716,24 +27701,25 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>280</v>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="76">
         <v>142277</v>
       </c>
     </row>
@@ -27741,7 +27727,7 @@
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="77">
         <v>140998</v>
       </c>
     </row>
@@ -27749,7 +27735,7 @@
       <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="77">
         <v>172490.2</v>
       </c>
     </row>
@@ -27757,7 +27743,7 @@
       <c r="A6" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="77">
         <v>257547</v>
       </c>
     </row>
@@ -27765,7 +27751,7 @@
       <c r="A7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="77">
         <v>241833.8</v>
       </c>
     </row>
@@ -27773,7 +27759,7 @@
       <c r="A8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="77">
         <v>188503.7</v>
       </c>
     </row>
@@ -27781,7 +27767,7 @@
       <c r="A9" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="77">
         <v>146716</v>
       </c>
     </row>
@@ -27789,7 +27775,7 @@
       <c r="A10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="77">
         <v>216563</v>
       </c>
     </row>
@@ -27797,7 +27783,7 @@
       <c r="A11" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>150626</v>
       </c>
     </row>
@@ -27805,7 +27791,7 @@
       <c r="A12" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="77">
         <v>247061</v>
       </c>
     </row>
@@ -27813,7 +27799,7 @@
       <c r="A13" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="77">
         <v>180968</v>
       </c>
     </row>
@@ -27821,7 +27807,7 @@
       <c r="A14" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="77">
         <v>195584</v>
       </c>
     </row>
@@ -27829,7 +27815,7 @@
       <c r="A15" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="77">
         <v>148655</v>
       </c>
     </row>
@@ -27837,7 +27823,7 @@
       <c r="A16" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="77">
         <v>185369</v>
       </c>
     </row>
@@ -27845,7 +27831,7 @@
       <c r="A17" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="77">
         <v>222724</v>
       </c>
     </row>
@@ -27853,7 +27839,7 @@
       <c r="A18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="77">
         <v>165376</v>
       </c>
     </row>
@@ -27861,7 +27847,7 @@
       <c r="A19" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="77">
         <v>240977</v>
       </c>
     </row>
@@ -27869,7 +27855,7 @@
       <c r="A20" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="77">
         <v>192794</v>
       </c>
     </row>
@@ -27877,7 +27863,7 @@
       <c r="A21" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="78">
         <v>216769</v>
       </c>
     </row>
@@ -27891,23 +27877,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>281</v>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>249</v>
       </c>
     </row>
@@ -27915,7 +27904,7 @@
       <c r="A3" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="80">
+      <c r="B3" s="79">
         <v>150000</v>
       </c>
     </row>
@@ -27930,24 +27919,26 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>282</v>
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
+        <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>249</v>
       </c>
     </row>
@@ -27955,7 +27946,7 @@
       <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="77">
         <v>150000</v>
       </c>
     </row>
@@ -27963,7 +27954,7 @@
       <c r="A4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="77">
         <v>150000</v>
       </c>
     </row>
@@ -27971,7 +27962,7 @@
       <c r="A5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="77">
         <v>150000</v>
       </c>
     </row>
@@ -27979,7 +27970,7 @@
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="78">
         <v>150000</v>
       </c>
     </row>

--- a/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
+++ b/pareto/case_studies/input_data_generic_strategic_case_study_LAYFLAT_FULL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07327253-9B73-474C-AA9A-D5C81C57AF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219849D-6ED1-45CB-B43F-7A47759C2908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="834" firstSheet="2" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-21720" yWindow="-3555" windowWidth="21840" windowHeight="13140" tabRatio="834" firstSheet="27" activeTab="35" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -108,11 +108,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={351D21B0-A2E0-4661-9BC9-3E29F23CD077}</author>
-    <author>tc={954D1F11-FD45-4D3D-A8AF-0FD2369021B3}</author>
+    <author>tc={F48106AB-FCCB-457F-ACFA-F44AC7743ED7}</author>
+    <author>tc={17549EBD-A9AD-4A09-B0F1-99A5A1C7F0B1}</author>
   </authors>
   <commentList>
-    <comment ref="AJ18" authorId="0" shapeId="0" xr:uid="{351D21B0-A2E0-4661-9BC9-3E29F23CD077}">
+    <comment ref="AJ18" authorId="0" shapeId="0" xr:uid="{F48106AB-FCCB-457F-ACFA-F44AC7743ED7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +120,7 @@
     Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</t>
       </text>
     </comment>
-    <comment ref="AM52" authorId="1" shapeId="0" xr:uid="{954D1F11-FD45-4D3D-A8AF-0FD2369021B3}">
+    <comment ref="AM52" authorId="1" shapeId="0" xr:uid="{17549EBD-A9AD-4A09-B0F1-99A5A1C7F0B1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1023,7 +1023,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,6 +1088,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2250,10 +2256,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AJ18" dT="2021-10-28T19:21:23.79" personId="{7E20C1B5-7AC5-453E-B7BB-A7A530AF52E0}" id="{351D21B0-A2E0-4661-9BC9-3E29F23CD077}">
+  <threadedComment ref="AJ18" dT="2021-10-28T19:21:23.79" personId="{7E20C1B5-7AC5-453E-B7BB-A7A530AF52E0}" id="{F48106AB-FCCB-457F-ACFA-F44AC7743ED7}">
     <text>Distances between completion pads and treatment facilities (layflat lines) are calculated as a straight distance times 1.3 (tortuosity factor)</text>
   </threadedComment>
-  <threadedComment ref="AM52" dT="2021-10-28T19:18:35.38" personId="{7E20C1B5-7AC5-453E-B7BB-A7A530AF52E0}" id="{954D1F11-FD45-4D3D-A8AF-0FD2369021B3}">
+  <threadedComment ref="AM52" dT="2021-10-28T19:18:35.38" personId="{7E20C1B5-7AC5-453E-B7BB-A7A530AF52E0}" id="{17549EBD-A9AD-4A09-B0F1-99A5A1C7F0B1}">
     <text>Distances between fresh water sources and completion pads are assumed, not measured from the diagram</text>
   </threadedComment>
 </ThreadedComments>
@@ -7858,7 +7864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB10CD-C2F5-4A5B-9D35-9BA20FBC12B6}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8903,6 +8909,9 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
@@ -9782,9 +9791,12 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19614,7 +19626,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19642,7 +19654,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="40">
-        <v>120000</v>
+        <v>300000</v>
       </c>
     </row>
   </sheetData>
@@ -19800,7 +19812,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="45">
-        <v>14.26</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>248</v>
@@ -19940,7 +19952,7 @@
         <v>248</v>
       </c>
       <c r="F4" s="45">
-        <v>16.847000000000001</v>
+        <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>248</v>
@@ -20071,7 +20083,7 @@
         <v>248</v>
       </c>
       <c r="G5" s="45">
-        <v>12.562999999999999</v>
+        <v>1.2563</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>248</v>
@@ -20214,7 +20226,7 @@
         <v>248</v>
       </c>
       <c r="L6" s="45">
-        <v>25.074000000000002</v>
+        <v>2.5074000000000001</v>
       </c>
       <c r="M6" s="45" t="s">
         <v>248</v>
@@ -20339,13 +20351,13 @@
         <v>248</v>
       </c>
       <c r="K7" s="45">
-        <v>59.184867367820758</v>
+        <v>5.9184867367820804</v>
       </c>
       <c r="L7" s="45" t="s">
         <v>248</v>
       </c>
       <c r="M7" s="45">
-        <v>14.871</v>
+        <v>1.4871000000000001</v>
       </c>
       <c r="N7" s="45" t="s">
         <v>248</v>
@@ -20485,7 +20497,7 @@
         <v>248</v>
       </c>
       <c r="Q8" s="45">
-        <v>24.758000000000003</v>
+        <v>2.4758</v>
       </c>
       <c r="R8" s="45" t="s">
         <v>248</v>
@@ -20610,7 +20622,7 @@
         <v>248</v>
       </c>
       <c r="P9" s="45">
-        <v>30.722259990726229</v>
+        <v>3.0722259990726202</v>
       </c>
       <c r="Q9" s="45" t="s">
         <v>248</v>
@@ -20884,7 +20896,7 @@
         <v>248</v>
       </c>
       <c r="V11" s="45">
-        <v>24.247</v>
+        <v>2.4247000000000001</v>
       </c>
       <c r="W11" s="45" t="s">
         <v>248</v>
@@ -21006,7 +21018,7 @@
         <v>248</v>
       </c>
       <c r="T12" s="45">
-        <v>24.036999999999999</v>
+        <v>2.4037000000000002</v>
       </c>
       <c r="U12" s="45" t="s">
         <v>248</v>
@@ -21152,7 +21164,7 @@
         <v>248</v>
       </c>
       <c r="Z13" s="45">
-        <v>38.297000000000004</v>
+        <v>3.8296999999999999</v>
       </c>
       <c r="AA13" s="45" t="s">
         <v>248</v>
@@ -21542,7 +21554,7 @@
         <v>248</v>
       </c>
       <c r="AB16" s="45">
-        <v>12.425000000000001</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="AC16" s="45" t="s">
         <v>248</v>
@@ -21661,7 +21673,7 @@
         <v>248</v>
       </c>
       <c r="Y17" s="11">
-        <v>24.249000000000002</v>
+        <v>2.4249000000000001</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>248</v>
@@ -21726,7 +21738,7 @@
         <v>248</v>
       </c>
       <c r="D18" s="45">
-        <v>11.209999999999999</v>
+        <v>1.121</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>248</v>
@@ -21822,7 +21834,7 @@
         <v>248</v>
       </c>
       <c r="AJ18" s="45">
-        <v>35.07985</v>
+        <v>3.5079850000000001</v>
       </c>
       <c r="AK18" s="32" t="s">
         <v>248</v>
@@ -21875,7 +21887,7 @@
         <v>248</v>
       </c>
       <c r="K19" s="45">
-        <v>21.292999999999999</v>
+        <v>2.1293000000000002</v>
       </c>
       <c r="L19" s="45" t="s">
         <v>248</v>
@@ -21950,7 +21962,7 @@
         <v>248</v>
       </c>
       <c r="AJ19" s="45">
-        <v>30.886050000000001</v>
+        <v>3.0886049999999998</v>
       </c>
       <c r="AK19" s="32" t="s">
         <v>248</v>
@@ -22024,7 +22036,7 @@
         <v>248</v>
       </c>
       <c r="R20" s="45">
-        <v>20.696999999999999</v>
+        <v>2.0697000000000001</v>
       </c>
       <c r="S20" s="45" t="s">
         <v>248</v>
@@ -22081,7 +22093,7 @@
         <v>248</v>
       </c>
       <c r="AK20" s="32">
-        <v>46.94885</v>
+        <v>4.6948850000000002</v>
       </c>
       <c r="AL20" s="35" t="s">
         <v>248</v>
@@ -22170,7 +22182,7 @@
         <v>248</v>
       </c>
       <c r="X21" s="11">
-        <v>22.094999999999999</v>
+        <v>2.2094999999999998</v>
       </c>
       <c r="Y21" s="11" t="s">
         <v>248</v>
@@ -22209,7 +22221,7 @@
         <v>248</v>
       </c>
       <c r="AK21" s="12">
-        <v>46.479550000000003</v>
+        <v>4.6479549999999996</v>
       </c>
       <c r="AL21" s="36" t="s">
         <v>248</v>
@@ -22235,7 +22247,7 @@
         <v>248</v>
       </c>
       <c r="C22" s="73">
-        <v>40.752409775985356</v>
+        <v>4.0752409775985399</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>248</v>
@@ -22319,7 +22331,7 @@
         <v>248</v>
       </c>
       <c r="AE22" s="73">
-        <v>41.716999999999999</v>
+        <v>4.1717000000000004</v>
       </c>
       <c r="AF22" s="45" t="s">
         <v>248</v>
@@ -22360,7 +22372,7 @@
         <v>80</v>
       </c>
       <c r="B23" s="73">
-        <v>40.752409775985356</v>
+        <v>4.0752409775985399</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>248</v>
@@ -22372,7 +22384,7 @@
         <v>248</v>
       </c>
       <c r="F23" s="45">
-        <v>18.141999999999999</v>
+        <v>1.8142</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>248</v>
@@ -22599,7 +22611,7 @@
         <v>248</v>
       </c>
       <c r="AM24" s="45">
-        <v>11.209999999999999</v>
+        <v>1.121</v>
       </c>
       <c r="AN24" s="45" t="s">
         <v>248</v>
@@ -22631,7 +22643,7 @@
         <v>248</v>
       </c>
       <c r="G25" s="45">
-        <v>12.532999999999999</v>
+        <v>1.2533000000000001</v>
       </c>
       <c r="H25" s="45" t="s">
         <v>248</v>
@@ -22706,7 +22718,7 @@
         <v>248</v>
       </c>
       <c r="AF25" s="45">
-        <v>13.163</v>
+        <v>1.3163</v>
       </c>
       <c r="AG25" s="45" t="s">
         <v>248</v>
@@ -22747,7 +22759,7 @@
         <v>248</v>
       </c>
       <c r="C26" s="73">
-        <v>18.141999999999999</v>
+        <v>1.8142</v>
       </c>
       <c r="D26" s="45" t="s">
         <v>248</v>
@@ -22765,7 +22777,7 @@
         <v>248</v>
       </c>
       <c r="I26" s="45">
-        <v>14.431000000000001</v>
+        <v>1.4431</v>
       </c>
       <c r="J26" s="45" t="s">
         <v>248</v>
@@ -22881,7 +22893,7 @@
         <v>248</v>
       </c>
       <c r="E27" s="45">
-        <v>12.532999999999999</v>
+        <v>1.2533000000000001</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>248</v>
@@ -22890,7 +22902,7 @@
         <v>248</v>
       </c>
       <c r="H27" s="45">
-        <v>11.53</v>
+        <v>1.153</v>
       </c>
       <c r="I27" s="45" t="s">
         <v>248</v>
@@ -23015,7 +23027,7 @@
         <v>248</v>
       </c>
       <c r="G28" s="45">
-        <v>11.53</v>
+        <v>1.153</v>
       </c>
       <c r="H28" s="45" t="s">
         <v>248</v>
@@ -23024,7 +23036,7 @@
         <v>6.0780000000000003</v>
       </c>
       <c r="J28" s="45">
-        <v>24.449000000000002</v>
+        <v>2.4449000000000001</v>
       </c>
       <c r="K28" s="45" t="s">
         <v>248</v>
@@ -23140,7 +23152,7 @@
         <v>248</v>
       </c>
       <c r="F29" s="45">
-        <v>14.431000000000001</v>
+        <v>1.4431</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>248</v>
@@ -23230,7 +23242,7 @@
         <v>248</v>
       </c>
       <c r="AJ29" s="45">
-        <v>17.599</v>
+        <v>1.7599</v>
       </c>
       <c r="AK29" s="32" t="s">
         <v>248</v>
@@ -23274,7 +23286,7 @@
         <v>248</v>
       </c>
       <c r="H30" s="45">
-        <v>24.449000000000002</v>
+        <v>2.4449000000000001</v>
       </c>
       <c r="I30" s="45" t="s">
         <v>248</v>
@@ -23286,7 +23298,7 @@
         <v>9.9379999999999988</v>
       </c>
       <c r="L30" s="45">
-        <v>38.850999999999999</v>
+        <v>3.8851</v>
       </c>
       <c r="M30" s="45" t="s">
         <v>248</v>
@@ -23417,7 +23429,7 @@
         <v>248</v>
       </c>
       <c r="M31" s="45">
-        <v>74.055867367820753</v>
+        <v>7.4055867367820802</v>
       </c>
       <c r="N31" s="45" t="s">
         <v>248</v>
@@ -23498,7 +23510,7 @@
         <v>248</v>
       </c>
       <c r="AN31" s="45">
-        <v>21.292999999999999</v>
+        <v>2.1293000000000002</v>
       </c>
       <c r="AO31" s="45" t="s">
         <v>248</v>
@@ -23536,7 +23548,7 @@
         <v>248</v>
       </c>
       <c r="J32" s="45">
-        <v>38.850999999999999</v>
+        <v>3.8851</v>
       </c>
       <c r="K32" s="45" t="s">
         <v>248</v>
@@ -23548,7 +23560,7 @@
         <v>248</v>
       </c>
       <c r="N32" s="45">
-        <v>26.43</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="O32" s="45" t="s">
         <v>248</v>
@@ -23667,7 +23679,7 @@
         <v>248</v>
       </c>
       <c r="K33" s="45">
-        <v>74.055867367820753</v>
+        <v>7.4055867367820802</v>
       </c>
       <c r="L33" s="45" t="s">
         <v>248</v>
@@ -23679,7 +23691,7 @@
         <v>248</v>
       </c>
       <c r="O33" s="45">
-        <v>48.848606101876086</v>
+        <v>4.8848606101876104</v>
       </c>
       <c r="P33" s="45" t="s">
         <v>248</v>
@@ -23748,7 +23760,7 @@
         <v>248</v>
       </c>
       <c r="AL33" s="32">
-        <v>10.85</v>
+        <v>1.085</v>
       </c>
       <c r="AM33" s="45" t="s">
         <v>248</v>
@@ -23798,7 +23810,7 @@
         <v>248</v>
       </c>
       <c r="L34" s="45">
-        <v>26.43</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="M34" s="45" t="s">
         <v>248</v>
@@ -23807,7 +23819,7 @@
         <v>248</v>
       </c>
       <c r="O34" s="45">
-        <v>31.087656701677112</v>
+        <v>3.1087656701677102</v>
       </c>
       <c r="P34" s="45" t="s">
         <v>248</v>
@@ -23861,7 +23873,7 @@
         <v>248</v>
       </c>
       <c r="AG34" s="45">
-        <v>30.183999999999997</v>
+        <v>3.0184000000000002</v>
       </c>
       <c r="AH34" s="45" t="s">
         <v>248</v>
@@ -23929,10 +23941,10 @@
         <v>248</v>
       </c>
       <c r="M35" s="45">
-        <v>48.848606101876086</v>
+        <v>4.8848606101876104</v>
       </c>
       <c r="N35" s="45">
-        <v>31.087656701677112</v>
+        <v>3.1087656701677102</v>
       </c>
       <c r="O35" s="45" t="s">
         <v>248</v>
@@ -23980,7 +23992,7 @@
         <v>248</v>
       </c>
       <c r="AD35" s="32">
-        <v>13.959</v>
+        <v>1.3958999999999999</v>
       </c>
       <c r="AE35" s="45" t="s">
         <v>248</v>
@@ -24069,7 +24081,7 @@
         <v>248</v>
       </c>
       <c r="Q36" s="45">
-        <v>13.553999999999998</v>
+        <v>1.3553999999999999</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>248</v>
@@ -24194,13 +24206,13 @@
         <v>248</v>
       </c>
       <c r="P37" s="45">
-        <v>13.553999999999998</v>
+        <v>1.3553999999999999</v>
       </c>
       <c r="Q37" s="45" t="s">
         <v>248</v>
       </c>
       <c r="R37" s="45">
-        <v>32.003367068383</v>
+        <v>3.2003367068383</v>
       </c>
       <c r="S37" s="45" t="s">
         <v>248</v>
@@ -24325,7 +24337,7 @@
         <v>248</v>
       </c>
       <c r="Q38" s="45">
-        <v>32.003367068383</v>
+        <v>3.2003367068383</v>
       </c>
       <c r="R38" s="45" t="s">
         <v>248</v>
@@ -24376,7 +24388,7 @@
         <v>248</v>
       </c>
       <c r="AH38" s="45">
-        <v>64.859913942891041</v>
+        <v>6.4859913942891003</v>
       </c>
       <c r="AI38" s="32" t="s">
         <v>248</v>
@@ -24397,7 +24409,7 @@
         <v>248</v>
       </c>
       <c r="AO38" s="45">
-        <v>20.696999999999999</v>
+        <v>2.0697000000000001</v>
       </c>
       <c r="AP38" s="32" t="s">
         <v>248</v>
@@ -24504,7 +24516,7 @@
         <v>248</v>
       </c>
       <c r="AH39" s="45">
-        <v>34.19</v>
+        <v>3.419</v>
       </c>
       <c r="AI39" s="32" t="s">
         <v>248</v>
@@ -24599,7 +24611,7 @@
         <v>248</v>
       </c>
       <c r="W40" s="45">
-        <v>54.977999999999994</v>
+        <v>5.4977999999999998</v>
       </c>
       <c r="X40" s="45" t="s">
         <v>248</v>
@@ -24769,7 +24781,7 @@
         <v>248</v>
       </c>
       <c r="AK41" s="32">
-        <v>22.666999999999998</v>
+        <v>2.2667000000000002</v>
       </c>
       <c r="AL41" s="32" t="s">
         <v>248</v>
@@ -24974,7 +24986,7 @@
         <v>248</v>
       </c>
       <c r="T43" s="45">
-        <v>54.977999999999994</v>
+        <v>5.4977999999999998</v>
       </c>
       <c r="U43" s="45" t="s">
         <v>248</v>
@@ -24986,7 +24998,7 @@
         <v>248</v>
       </c>
       <c r="X43" s="45">
-        <v>28.763999999999999</v>
+        <v>2.8763999999999998</v>
       </c>
       <c r="Y43" s="45" t="s">
         <v>248</v>
@@ -25013,7 +25025,7 @@
         <v>248</v>
       </c>
       <c r="AG43" s="45">
-        <v>38.808</v>
+        <v>3.8807999999999998</v>
       </c>
       <c r="AH43" s="45" t="s">
         <v>248</v>
@@ -25111,13 +25123,13 @@
         <v>248</v>
       </c>
       <c r="W44" s="45">
-        <v>28.763999999999999</v>
+        <v>2.8763999999999998</v>
       </c>
       <c r="X44" s="45" t="s">
         <v>248</v>
       </c>
       <c r="Y44" s="45">
-        <v>28.606999999999999</v>
+        <v>2.8607</v>
       </c>
       <c r="Z44" s="45" t="s">
         <v>248</v>
@@ -25168,7 +25180,7 @@
         <v>248</v>
       </c>
       <c r="AP44" s="32">
-        <v>22.094999999999999</v>
+        <v>2.2094999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -25242,13 +25254,13 @@
         <v>248</v>
       </c>
       <c r="X45" s="45">
-        <v>28.606999999999999</v>
+        <v>2.8607</v>
       </c>
       <c r="Y45" s="45" t="s">
         <v>248</v>
       </c>
       <c r="Z45" s="45">
-        <v>12.731</v>
+        <v>1.2730999999999999</v>
       </c>
       <c r="AA45" s="45" t="s">
         <v>248</v>
@@ -25373,13 +25385,13 @@
         <v>248</v>
       </c>
       <c r="Y46" s="45">
-        <v>12.731</v>
+        <v>1.2730999999999999</v>
       </c>
       <c r="Z46" s="45" t="s">
         <v>248</v>
       </c>
       <c r="AA46" s="45">
-        <v>15.840999999999999</v>
+        <v>1.5841000000000001</v>
       </c>
       <c r="AB46" s="45" t="s">
         <v>248</v>
@@ -25504,16 +25516,16 @@
         <v>248</v>
       </c>
       <c r="Z47" s="45">
-        <v>15.840999999999999</v>
+        <v>1.5841000000000001</v>
       </c>
       <c r="AA47" s="45" t="s">
         <v>248</v>
       </c>
       <c r="AB47" s="45">
-        <v>16.506</v>
+        <v>1.6506000000000001</v>
       </c>
       <c r="AC47" s="45">
-        <v>17.848000000000003</v>
+        <v>1.7847999999999999</v>
       </c>
       <c r="AD47" s="32" t="s">
         <v>248</v>
@@ -25635,7 +25647,7 @@
         <v>248</v>
       </c>
       <c r="AA48" s="45">
-        <v>16.506</v>
+        <v>1.6506000000000001</v>
       </c>
       <c r="AB48" s="45" t="s">
         <v>248</v>
@@ -25763,7 +25775,7 @@
         <v>248</v>
       </c>
       <c r="AA49" s="45">
-        <v>17.848000000000003</v>
+        <v>1.7847999999999999</v>
       </c>
       <c r="AB49" s="45" t="s">
         <v>248</v>
@@ -25787,7 +25799,7 @@
         <v>248</v>
       </c>
       <c r="AI49" s="32">
-        <v>22.458000000000002</v>
+        <v>2.2458</v>
       </c>
       <c r="AJ49" s="45" t="s">
         <v>248</v>
@@ -25855,7 +25867,7 @@
         <v>248</v>
       </c>
       <c r="O50" s="11">
-        <v>13.959</v>
+        <v>1.3958999999999999</v>
       </c>
       <c r="P50" s="11">
         <v>7.1440000000000001</v>
@@ -25977,7 +25989,7 @@
         <v>248</v>
       </c>
       <c r="M51" s="11">
-        <v>10.85</v>
+        <v>1.085</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>248</v>
@@ -26183,7 +26195,7 @@
         <v>248</v>
       </c>
       <c r="AM52" s="45">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="AN52" s="45" t="s">
         <v>248</v>
@@ -26311,7 +26323,7 @@
         <v>248</v>
       </c>
       <c r="AM53" s="45">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="AN53" s="45" t="s">
         <v>248</v>
@@ -26442,7 +26454,7 @@
         <v>248</v>
       </c>
       <c r="AN54" s="45">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="AO54" s="45" t="s">
         <v>248</v>
@@ -26570,7 +26582,7 @@
         <v>248</v>
       </c>
       <c r="AN55" s="45">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="AO55" s="45" t="s">
         <v>248</v>
@@ -26701,7 +26713,7 @@
         <v>248</v>
       </c>
       <c r="AO56" s="45">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AP56" s="32" t="s">
         <v>248</v>
@@ -26829,7 +26841,7 @@
         <v>248</v>
       </c>
       <c r="AO57" s="45">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="AP57" s="32" t="s">
         <v>248</v>
@@ -26960,7 +26972,7 @@
         <v>248</v>
       </c>
       <c r="AP58" s="32">
-        <v>22</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -27088,7 +27100,7 @@
         <v>248</v>
       </c>
       <c r="AP59" s="12">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="60" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
@@ -27117,7 +27129,7 @@
         <v>248</v>
       </c>
       <c r="I60" s="45">
-        <v>17.599</v>
+        <v>1.7599</v>
       </c>
       <c r="J60" s="45" t="s">
         <v>248</v>
@@ -27207,10 +27219,10 @@
         <v>248</v>
       </c>
       <c r="AM60" s="45">
-        <v>35.07985</v>
+        <v>3.5079850000000001</v>
       </c>
       <c r="AN60" s="45">
-        <v>30.886050000000001</v>
+        <v>3.0886049999999998</v>
       </c>
       <c r="AO60" s="45" t="s">
         <v>248</v>
@@ -27279,7 +27291,7 @@
         <v>248</v>
       </c>
       <c r="U61" s="11">
-        <v>22.666999999999998</v>
+        <v>2.2667000000000002</v>
       </c>
       <c r="V61" s="11" t="s">
         <v>248</v>
@@ -27339,10 +27351,10 @@
         <v>248</v>
       </c>
       <c r="AO61" s="11">
-        <v>46.94885</v>
+        <v>4.6948850000000002</v>
       </c>
       <c r="AP61" s="12">
-        <v>46.479550000000003</v>
+        <v>4.6479549999999996</v>
       </c>
     </row>
   </sheetData>
